--- a/Base_ativos.xlsx
+++ b/Base_ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasCavalcante\Desktop\Relatorio_Passivos_Guardian\Relat-rios-Passivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0AF7EF-8801-4B64-806B-DE4B46290199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5ED66B-8477-4852-ABE9-053A9A32D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A27619D-CDB8-4F4E-8542-BA89588784BC}"/>
   </bookViews>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Base_ativos.xlsx
+++ b/Base_ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasCavalcante\Desktop\Relatorio_Passivos_Guardian\Relat-rios-Passivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5ED66B-8477-4852-ABE9-053A9A32D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA9C6A-2790-4F25-BC64-ED0ADB1E563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A27619D-CDB8-4F4E-8542-BA89588784BC}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1824,6 +1825,1338 @@
           </cell>
           <cell r="JF125">
             <v>138185.59684210527</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId3"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="IFIX_Corte_NOVO"/>
+      <sheetName val="Comparativo"/>
+      <sheetName val="Comparativo LC"/>
+      <sheetName val="Garfico Y1M MKT"/>
+      <sheetName val="Comp. Formatado"/>
+      <sheetName val="Comp. Formatado_wide"/>
+      <sheetName val="Garfico Y12M MKT"/>
+      <sheetName val="Angulo_JUN"/>
+      <sheetName val="Base"/>
+      <sheetName val="ANGULOS"/>
+      <sheetName val="Novo_ìndice_IFIX"/>
+      <sheetName val="IFIX_Corte_Ajustado"/>
+      <sheetName val="IFIX_Corte_Base_Antiga"/>
+      <sheetName val="Planilha2"/>
+      <sheetName val="Planilha1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>KNRI11</v>
+          </cell>
+          <cell r="EK9">
+            <v>1</v>
+          </cell>
+          <cell r="EN9">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>TVRI11</v>
+          </cell>
+          <cell r="EK10">
+            <v>0.98</v>
+          </cell>
+          <cell r="EN10">
+            <v>10.730000000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>ALZR11</v>
+          </cell>
+          <cell r="EK11">
+            <v>0.80549999999999999</v>
+          </cell>
+          <cell r="EN11">
+            <v>8.3589379999999984</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>GARE11</v>
+          </cell>
+          <cell r="EK12">
+            <v>9.1999999999999998E-2</v>
+          </cell>
+          <cell r="EN12">
+            <v>0.97399999999999975</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>RBRP11</v>
+          </cell>
+          <cell r="EK13">
+            <v>0.54</v>
+          </cell>
+          <cell r="EN13">
+            <v>5.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>SARE11</v>
+          </cell>
+          <cell r="EK14">
+            <v>0.02</v>
+          </cell>
+          <cell r="EN14">
+            <v>0.29599999999999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>ZAVI11</v>
+          </cell>
+          <cell r="EK15">
+            <v>1.1499999999999999</v>
+          </cell>
+          <cell r="EN15">
+            <v>12.95</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>HGRU11</v>
+          </cell>
+          <cell r="EK16">
+            <v>1.9</v>
+          </cell>
+          <cell r="EN16">
+            <v>10.899999999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>TRXF11</v>
+          </cell>
+          <cell r="EK17">
+            <v>2.5</v>
+          </cell>
+          <cell r="EN17">
+            <v>11.8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>RBVA11</v>
+          </cell>
+          <cell r="EK18">
+            <v>0.9</v>
+          </cell>
+          <cell r="EN18">
+            <v>10.8</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>VIUR11</v>
+          </cell>
+          <cell r="EK19">
+            <v>6.7000000000000004E-2</v>
+          </cell>
+          <cell r="EN19">
+            <v>0.73699999999999988</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>HGLG11</v>
+          </cell>
+          <cell r="EK20">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EN20">
+            <v>12.099999999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>BTLG11</v>
+          </cell>
+          <cell r="EK21">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN21">
+            <v>8.4599999999999991</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>XPLG11</v>
+          </cell>
+          <cell r="EK22">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN22">
+            <v>8.5800000000000018</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>LVBI11</v>
+          </cell>
+          <cell r="EK23">
+            <v>0.83</v>
+          </cell>
+          <cell r="EN23">
+            <v>9.620000000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>BRCO11</v>
+          </cell>
+          <cell r="EK24">
+            <v>0.87</v>
+          </cell>
+          <cell r="EN24">
+            <v>9.5699999999999985</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>VILG11</v>
+          </cell>
+          <cell r="EK25">
+            <v>0.63</v>
+          </cell>
+          <cell r="EN25">
+            <v>6.74</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>HSLG11</v>
+          </cell>
+          <cell r="EK26">
+            <v>0.74</v>
+          </cell>
+          <cell r="EN26">
+            <v>8.14</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>GGRC11</v>
+          </cell>
+          <cell r="EK27">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN27">
+            <v>1.0249999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>TRBL11</v>
+          </cell>
+          <cell r="EK28">
+            <v>0.62</v>
+          </cell>
+          <cell r="EN28">
+            <v>8.6599999999999984</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>XPIN11</v>
+          </cell>
+          <cell r="EK29">
+            <v>0.74</v>
+          </cell>
+          <cell r="EN29">
+            <v>7.15</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>RBRL11</v>
+          </cell>
+          <cell r="EK30">
+            <v>0.77</v>
+          </cell>
+          <cell r="EN30">
+            <v>7.5800000000000018</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>BTAL11</v>
+          </cell>
+          <cell r="EK31">
+            <v>0.84</v>
+          </cell>
+          <cell r="EN31">
+            <v>8.67</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>PATL11</v>
+          </cell>
+          <cell r="EK32">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="EN32">
+            <v>6.3599999999999985</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>INLG11</v>
+          </cell>
+          <cell r="EK33">
+            <v>0.8</v>
+          </cell>
+          <cell r="EN33">
+            <v>8.27</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>RZAT11</v>
+          </cell>
+          <cell r="EK34">
+            <v>1</v>
+          </cell>
+          <cell r="EN34">
+            <v>11.650000000000002</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>BLMG11</v>
+          </cell>
+          <cell r="EK35">
+            <v>0.5</v>
+          </cell>
+          <cell r="EN35">
+            <v>4.2200000000000006</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>XPML11</v>
+          </cell>
+          <cell r="EK36">
+            <v>0.92</v>
+          </cell>
+          <cell r="EN36">
+            <v>10.07</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>VISC11</v>
+          </cell>
+          <cell r="EK37">
+            <v>0.8</v>
+          </cell>
+          <cell r="EN37">
+            <v>9.73</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>HGBS11</v>
+          </cell>
+          <cell r="EK38">
+            <v>1.6</v>
+          </cell>
+          <cell r="EN38">
+            <v>18.350000000000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>HSML11</v>
+          </cell>
+          <cell r="EK39">
+            <v>0.8</v>
+          </cell>
+          <cell r="EN39">
+            <v>8.7999999999999989</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>GZIT11</v>
+          </cell>
+          <cell r="EK40">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN40">
+            <v>8.5800000000000018</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>MALL11</v>
+          </cell>
+          <cell r="EK41">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN41">
+            <v>9.1100000000000012</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>BPML11</v>
+          </cell>
+          <cell r="EK42">
+            <v>1.07</v>
+          </cell>
+          <cell r="EN42">
+            <v>11.6</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>AJFI11</v>
+          </cell>
+          <cell r="EK43">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="EN43">
+            <v>0.76988000000000001</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>CPSH11</v>
+          </cell>
+          <cell r="EK44">
+            <v>0.11</v>
+          </cell>
+          <cell r="EN44">
+            <v>1.105</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>PVBI11</v>
+          </cell>
+          <cell r="EK45">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="EN45">
+            <v>6.7500000000000018</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>BRCR11</v>
+          </cell>
+          <cell r="EK46">
+            <v>0.5</v>
+          </cell>
+          <cell r="EN46">
+            <v>5.32</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>JSRE11</v>
+          </cell>
+          <cell r="EK47">
+            <v>0.48</v>
+          </cell>
+          <cell r="EN47">
+            <v>5.2600000000000007</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>HGRE11</v>
+          </cell>
+          <cell r="EK48">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN48">
+            <v>9.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>BROF11</v>
+          </cell>
+          <cell r="EK49">
+            <v>0.5</v>
+          </cell>
+          <cell r="EN49">
+            <v>5.3846880000000006</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>GTWR11</v>
+          </cell>
+          <cell r="EK50">
+            <v>0.83</v>
+          </cell>
+          <cell r="EN50">
+            <v>8.73</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>KORE11</v>
+          </cell>
+          <cell r="EK51">
+            <v>1.25</v>
+          </cell>
+          <cell r="EN51">
+            <v>13.75</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>VINO11</v>
+          </cell>
+          <cell r="EK52">
+            <v>0.05</v>
+          </cell>
+          <cell r="EN52">
+            <v>0.60200000000000009</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>RECT11</v>
+          </cell>
+          <cell r="EK53">
+            <v>0.36</v>
+          </cell>
+          <cell r="EN53">
+            <v>4.0734000000000004</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>RCRB11</v>
+          </cell>
+          <cell r="EK54">
+            <v>1.1100000000000001</v>
+          </cell>
+          <cell r="EN54">
+            <v>10.62</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>HGPO11</v>
+          </cell>
+          <cell r="EK55">
+            <v>0</v>
+          </cell>
+          <cell r="EN55">
+            <v>146.69999999999996</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>TEPP11</v>
+          </cell>
+          <cell r="EK56">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN56">
+            <v>9.73</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>AIEC11</v>
+          </cell>
+          <cell r="EK57">
+            <v>1.22</v>
+          </cell>
+          <cell r="EN57">
+            <v>8.240000000000002</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>FATN11</v>
+          </cell>
+          <cell r="EK58">
+            <v>0.85</v>
+          </cell>
+          <cell r="EN58">
+            <v>9.3499999999999979</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>RZTR11</v>
+          </cell>
+          <cell r="EK59">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EN59">
+            <v>10.3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>BTRA11</v>
+          </cell>
+          <cell r="EK60">
+            <v>0.3</v>
+          </cell>
+          <cell r="EN60">
+            <v>3.2999999999999994</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>SNEL11</v>
+          </cell>
+          <cell r="EK61">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN61">
+            <v>1.1166499999999999</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>HTMX11</v>
+          </cell>
+          <cell r="EK62">
+            <v>3.9372500000000001</v>
+          </cell>
+          <cell r="EN62">
+            <v>26.136378000000004</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>TGAR11</v>
+          </cell>
+          <cell r="EK63">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EN63">
+            <v>13.56</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>MFII11</v>
+          </cell>
+          <cell r="EK64">
+            <v>1.18</v>
+          </cell>
+          <cell r="EN64">
+            <v>13.099999999999998</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>BTHF11</v>
+          </cell>
+          <cell r="EK65">
+            <v>9.7000000000000003E-2</v>
+          </cell>
+          <cell r="EN65">
+            <v>0.82850000000000001</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>HFOF11</v>
+          </cell>
+          <cell r="EK66">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="EN66">
+            <v>6.71</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>RBRF11</v>
+          </cell>
+          <cell r="EK67">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN67">
+            <v>0.69820000000000015</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>JSAF11</v>
+          </cell>
+          <cell r="EK68">
+            <v>9.0999999999999998E-2</v>
+          </cell>
+          <cell r="EN68">
+            <v>1.0549999999999999</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>KFOF11</v>
+          </cell>
+          <cell r="EK69">
+            <v>0.75</v>
+          </cell>
+          <cell r="EN69">
+            <v>8.4499999999999993</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>BCIA11</v>
+          </cell>
+          <cell r="EK70">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN70">
+            <v>9.59</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>KISU11</v>
+          </cell>
+          <cell r="EK71">
+            <v>6.7000000000000004E-2</v>
+          </cell>
+          <cell r="EN71">
+            <v>0.78299999999999992</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>XPSF11</v>
+          </cell>
+          <cell r="EK72">
+            <v>7.5999999999999998E-2</v>
+          </cell>
+          <cell r="EN72">
+            <v>0.79599999999999993</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>BPFF11</v>
+          </cell>
+          <cell r="EK73">
+            <v>0.6</v>
+          </cell>
+          <cell r="EN73">
+            <v>6.7600000000000007</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>HGFF11</v>
+          </cell>
+          <cell r="EK74">
+            <v>1.35</v>
+          </cell>
+          <cell r="EN74">
+            <v>8.3500000000000014</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>SNFF11</v>
+          </cell>
+          <cell r="EK75">
+            <v>0.72</v>
+          </cell>
+          <cell r="EN75">
+            <v>9.67</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>RBFF11</v>
+          </cell>
+          <cell r="EK76">
+            <v>0.52</v>
+          </cell>
+          <cell r="EN76">
+            <v>5.5999999999999988</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>RVBI11</v>
+          </cell>
+          <cell r="EK77">
+            <v>0.75</v>
+          </cell>
+          <cell r="EN77">
+            <v>8.25</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>BBFO11</v>
+          </cell>
+          <cell r="EK78">
+            <v>0.65</v>
+          </cell>
+          <cell r="EN78">
+            <v>7.1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>KNIP11</v>
+          </cell>
+          <cell r="EK79">
+            <v>1</v>
+          </cell>
+          <cell r="EN79">
+            <v>9.6799999999999979</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>KNCR11</v>
+          </cell>
+          <cell r="EK80">
+            <v>1</v>
+          </cell>
+          <cell r="EN80">
+            <v>10.719999999999999</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>MXRF11</v>
+          </cell>
+          <cell r="EK81">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN81">
+            <v>1.0699999999999998</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>IRDM11</v>
+          </cell>
+          <cell r="EK82">
+            <v>0.75</v>
+          </cell>
+          <cell r="EN82">
+            <v>8.3600000000000012</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>KNHY11</v>
+          </cell>
+          <cell r="EK83">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EN83">
+            <v>11.950000000000001</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>CPTS11</v>
+          </cell>
+          <cell r="EK84">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+          <cell r="EN84">
+            <v>0.83099999999999996</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>RECR11</v>
+          </cell>
+          <cell r="EK85">
+            <v>0.96140000000000003</v>
+          </cell>
+          <cell r="EN85">
+            <v>9.8448000000000011</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>HCTR11</v>
+          </cell>
+          <cell r="EK86">
+            <v>0</v>
+          </cell>
+          <cell r="EN86">
+            <v>3.7879999999999994</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>KNHF11</v>
+          </cell>
+          <cell r="EK87">
+            <v>0.9</v>
+          </cell>
+          <cell r="EN87">
+            <v>9.8600000000000012</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>MCCI11</v>
+          </cell>
+          <cell r="EK88">
+            <v>0.8</v>
+          </cell>
+          <cell r="EN88">
+            <v>8.7999999999999989</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>HGCR11</v>
+          </cell>
+          <cell r="EK89">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN89">
+            <v>10.45</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>KNUQ11</v>
+          </cell>
+          <cell r="EK90">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EN90">
+            <v>11.550000000000002</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>VGHF11</v>
+          </cell>
+          <cell r="EK91">
+            <v>0.09</v>
+          </cell>
+          <cell r="EN91">
+            <v>0.97999999999999987</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>VRTA11</v>
+          </cell>
+          <cell r="EK92">
+            <v>0.85</v>
+          </cell>
+          <cell r="EN92">
+            <v>9.4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>VGIR11</v>
+          </cell>
+          <cell r="EK93">
+            <v>0.11</v>
+          </cell>
+          <cell r="EN93">
+            <v>1.1600000000000001</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>RBRR11</v>
+          </cell>
+          <cell r="EK94">
+            <v>0.8</v>
+          </cell>
+          <cell r="EN94">
+            <v>9.2510000000000012</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>VCJR11</v>
+          </cell>
+          <cell r="EK95">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN95">
+            <v>10.079999999999998</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>DEVA11</v>
+          </cell>
+          <cell r="EK96">
+            <v>0.43</v>
+          </cell>
+          <cell r="EN96">
+            <v>5.7</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>RBRY11</v>
+          </cell>
+          <cell r="EK97">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN97">
+            <v>10.660000000000002</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>URPR11</v>
+          </cell>
+          <cell r="EK98">
+            <v>0.88</v>
+          </cell>
+          <cell r="EN98">
+            <v>10.91</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>KNSC11</v>
+          </cell>
+          <cell r="EK99">
+            <v>0.09</v>
+          </cell>
+          <cell r="EN99">
+            <v>0.94999999999999973</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>MCRE11</v>
+          </cell>
+          <cell r="EK100">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN100">
+            <v>1.1600000000000001</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>VGIP11</v>
+          </cell>
+          <cell r="EK101">
+            <v>0.82</v>
+          </cell>
+          <cell r="EN101">
+            <v>9.370000000000001</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>CVBI11</v>
+          </cell>
+          <cell r="EK102">
+            <v>0.9</v>
+          </cell>
+          <cell r="EN102">
+            <v>10.24</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>BTCI11</v>
+          </cell>
+          <cell r="EK103">
+            <v>9.0999999999999998E-2</v>
+          </cell>
+          <cell r="EN103">
+            <v>1.0129999999999999</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>XPCI11</v>
+          </cell>
+          <cell r="EK104">
+            <v>0.83</v>
+          </cell>
+          <cell r="EN104">
+            <v>9.48</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>RZAK11</v>
+          </cell>
+          <cell r="EK105">
+            <v>1.1299999999999999</v>
+          </cell>
+          <cell r="EN105">
+            <v>11.59</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>HABT11</v>
+          </cell>
+          <cell r="EK106">
+            <v>1.05</v>
+          </cell>
+          <cell r="EN106">
+            <v>11.25</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>BCRI11</v>
+          </cell>
+          <cell r="EK107">
+            <v>0.78</v>
+          </cell>
+          <cell r="EN107">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>CACR11</v>
+          </cell>
+          <cell r="EK108">
+            <v>1.34</v>
+          </cell>
+          <cell r="EN108">
+            <v>14.890000000000002</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>AFHI11</v>
+          </cell>
+          <cell r="EK109">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN109">
+            <v>10.399999999999999</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>BARI11</v>
+          </cell>
+          <cell r="EK110">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN110">
+            <v>8.8353999999999999</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>SNCI11</v>
+          </cell>
+          <cell r="EK111">
+            <v>1</v>
+          </cell>
+          <cell r="EN111">
+            <v>10.55</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>KCRE11</v>
+          </cell>
+          <cell r="EK112">
+            <v>0.09</v>
+          </cell>
+          <cell r="EN112">
+            <v>1.026</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>PORD11</v>
+          </cell>
+          <cell r="EK113">
+            <v>8.8999999999999996E-2</v>
+          </cell>
+          <cell r="EN113">
+            <v>0.99799999999999978</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>MANA11</v>
+          </cell>
+          <cell r="EK114">
+            <v>0.11</v>
+          </cell>
+          <cell r="EN114">
+            <v>1.1500000000000001</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>VSLH11</v>
+          </cell>
+          <cell r="EK115">
+            <v>0.04</v>
+          </cell>
+          <cell r="EN115">
+            <v>0.43999999999999995</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>OUJP11</v>
+          </cell>
+          <cell r="EK116">
+            <v>1.24</v>
+          </cell>
+          <cell r="EN116">
+            <v>10.020000000000001</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>WHGR11</v>
+          </cell>
+          <cell r="EK117">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN117">
+            <v>1.095</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>RBRX11</v>
+          </cell>
+          <cell r="EK118">
+            <v>0.08</v>
+          </cell>
+          <cell r="EN118">
+            <v>1.03</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>HSAF11</v>
+          </cell>
+          <cell r="EK119">
+            <v>1.2</v>
+          </cell>
+          <cell r="EN119">
+            <v>10.050000000000001</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>KIVO11</v>
+          </cell>
+          <cell r="EK120">
+            <v>0.95</v>
+          </cell>
+          <cell r="EN120">
+            <v>10.670000000000002</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>SPXS11</v>
+          </cell>
+          <cell r="EK121">
+            <v>0.1</v>
+          </cell>
+          <cell r="EN121">
+            <v>1.073</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>ARRI11</v>
+          </cell>
+          <cell r="EK122">
+            <v>0.09</v>
+          </cell>
+          <cell r="EN122">
+            <v>1.0699999999999998</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>CYCR11</v>
+          </cell>
+          <cell r="EK123">
+            <v>9.5000000000000001E-2</v>
+          </cell>
+          <cell r="EN123">
+            <v>1.1300000000000001</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>CLIN11</v>
+          </cell>
+          <cell r="EK124">
+            <v>1</v>
+          </cell>
+          <cell r="EN124">
+            <v>10.85</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>GAME11</v>
+          </cell>
+          <cell r="EK125">
+            <v>0.09</v>
+          </cell>
+          <cell r="EN125">
+            <v>0.98999999999999977</v>
           </cell>
         </row>
       </sheetData>
@@ -2166,22 +3499,23 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2251,10 +3585,12 @@
         <v>144264145.62</v>
       </c>
       <c r="I2">
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11</v>
       </c>
       <c r="K2">
         <v>165.5</v>
@@ -2292,10 +3628,12 @@
         <v>29273093.380000003</v>
       </c>
       <c r="I3">
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.98</v>
       </c>
       <c r="J3">
-        <v>11.56</v>
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.730000000000002</v>
       </c>
       <c r="K3">
         <v>97.84</v>
@@ -2333,10 +3671,12 @@
         <v>43946969.469999984</v>
       </c>
       <c r="I4">
-        <v>0.77500000000000002</v>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.80549999999999999</v>
       </c>
       <c r="J4">
-        <v>9.1759929999999983</v>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.3589379999999984</v>
       </c>
       <c r="K4">
         <v>117.64</v>
@@ -2374,10 +3714,12 @@
         <v>126518616.86</v>
       </c>
       <c r="I5">
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="J5">
-        <v>1.0499999999999998</v>
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.97399999999999975</v>
       </c>
       <c r="K5">
         <v>9.34</v>
@@ -2415,10 +3757,12 @@
         <v>31513791.960000001</v>
       </c>
       <c r="I6">
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.54</v>
       </c>
       <c r="J6">
-        <v>5.73</v>
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.71</v>
       </c>
       <c r="K6">
         <v>54.8</v>
@@ -2456,10 +3800,12 @@
         <v>18634339.09</v>
       </c>
       <c r="I7">
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.02</v>
       </c>
       <c r="J7">
-        <v>0.36099999999999999</v>
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.29599999999999999</v>
       </c>
       <c r="K7">
         <v>4.9290000000000003</v>
@@ -2497,10 +3843,12 @@
         <v>6565184.5600000015</v>
       </c>
       <c r="I8">
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="J8">
-        <v>14.36</v>
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>12.95</v>
       </c>
       <c r="K8">
         <v>125</v>
@@ -2538,10 +3886,12 @@
         <v>166517451.91</v>
       </c>
       <c r="I9">
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.9</v>
       </c>
       <c r="J9">
-        <v>13.149999999999999</v>
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.899999999999999</v>
       </c>
       <c r="K9">
         <v>140</v>
@@ -2579,10 +3929,12 @@
         <v>141342453.94</v>
       </c>
       <c r="I10">
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>2.5</v>
       </c>
       <c r="J10">
-        <v>13.47</v>
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.8</v>
       </c>
       <c r="K10">
         <v>111.75</v>
@@ -2620,10 +3972,12 @@
         <v>37478770.269999996</v>
       </c>
       <c r="I11">
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.9</v>
       </c>
       <c r="J11">
-        <v>11.9</v>
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.8</v>
       </c>
       <c r="K11">
         <v>113.56</v>
@@ -2661,10 +4015,12 @@
         <v>4703893.5100000007</v>
       </c>
       <c r="I12">
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="J12">
-        <v>0.81399999999999983</v>
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.73699999999999988</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -2702,10 +4058,12 @@
         <v>193936854.31</v>
       </c>
       <c r="I13">
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J13">
-        <v>13.199999999999998</v>
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>12.099999999999998</v>
       </c>
       <c r="K13">
         <v>161.99</v>
@@ -2743,10 +4101,12 @@
         <v>233325856.47</v>
       </c>
       <c r="I14">
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J14">
-        <v>9.2499999999999982</v>
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.4599999999999991</v>
       </c>
       <c r="K14">
         <v>103.87</v>
@@ -2784,10 +4144,12 @@
         <v>111142596.14000002</v>
       </c>
       <c r="I15">
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J15">
-        <v>9.3600000000000012</v>
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.5800000000000018</v>
       </c>
       <c r="K15">
         <v>108.9</v>
@@ -2825,10 +4187,12 @@
         <v>78093900.279999986</v>
       </c>
       <c r="I16">
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J16">
-        <v>10.740000000000002</v>
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.620000000000001</v>
       </c>
       <c r="K16">
         <v>117.87</v>
@@ -2866,10 +4230,12 @@
         <v>89282246.679999992</v>
       </c>
       <c r="I17">
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.87</v>
       </c>
       <c r="J17">
-        <v>10.559999999999999</v>
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.5699999999999985</v>
       </c>
       <c r="K17">
         <v>123.39</v>
@@ -2907,10 +4273,12 @@
         <v>54308162.409999996</v>
       </c>
       <c r="I18">
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.63</v>
       </c>
       <c r="J18">
-        <v>7.3599999999999985</v>
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>6.74</v>
       </c>
       <c r="K18">
         <v>99.27</v>
@@ -2948,10 +4316,12 @@
         <v>13517018.77</v>
       </c>
       <c r="I19">
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.74</v>
       </c>
       <c r="J19">
-        <v>8.8800000000000008</v>
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.14</v>
       </c>
       <c r="K19">
         <v>98.5</v>
@@ -2989,10 +4359,12 @@
         <v>44083469.700000003</v>
       </c>
       <c r="I20">
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J20">
-        <v>1.107</v>
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K20">
         <v>11.367000000000001</v>
@@ -3030,10 +4402,12 @@
         <v>26339401.879999999</v>
       </c>
       <c r="I21">
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.62</v>
       </c>
       <c r="J21">
-        <v>9.61</v>
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.6599999999999984</v>
       </c>
       <c r="K21">
         <v>97.7</v>
@@ -3071,10 +4445,12 @@
         <v>8814667.3699999992</v>
       </c>
       <c r="I22">
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.74</v>
       </c>
       <c r="J22">
-        <v>7.65</v>
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>7.15</v>
       </c>
       <c r="K22">
         <v>80.2</v>
@@ -3112,10 +4488,12 @@
         <v>10424496.710000003</v>
       </c>
       <c r="I23">
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.77</v>
       </c>
       <c r="J23">
-        <v>8.2500000000000018</v>
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>7.5800000000000018</v>
       </c>
       <c r="K23">
         <v>87.41</v>
@@ -3153,10 +4531,12 @@
         <v>13895191.699999997</v>
       </c>
       <c r="I24">
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.84</v>
       </c>
       <c r="J24">
-        <v>9.120000000000001</v>
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.67</v>
       </c>
       <c r="K24">
         <v>79.44</v>
@@ -3194,10 +4574,12 @@
         <v>11325135.68</v>
       </c>
       <c r="I25">
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="J25">
-        <v>6.9899999999999975</v>
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>6.3599999999999985</v>
       </c>
       <c r="K25">
         <v>69</v>
@@ -3235,10 +4617,12 @@
         <v>8678565.4900000002</v>
       </c>
       <c r="I26">
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J26">
-        <v>8.9100000000000019</v>
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.27</v>
       </c>
       <c r="K26">
         <v>89.88</v>
@@ -3276,10 +4660,12 @@
         <v>20421836.009999998</v>
       </c>
       <c r="I27">
-        <v>0.98</v>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>12.950000000000001</v>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.650000000000002</v>
       </c>
       <c r="K27">
         <v>92.52</v>
@@ -3317,10 +4703,12 @@
         <v>10219303.309999999</v>
       </c>
       <c r="I28">
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.5</v>
       </c>
       <c r="J28">
-        <v>4.46</v>
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>4.2200000000000006</v>
       </c>
       <c r="K28">
         <v>40.799999999999997</v>
@@ -3358,10 +4746,12 @@
         <v>372407851.94</v>
       </c>
       <c r="I29">
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.92</v>
       </c>
       <c r="J29">
-        <v>10.97</v>
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.07</v>
       </c>
       <c r="K29">
         <v>116.71</v>
@@ -3399,10 +4789,12 @@
         <v>137013339.5</v>
       </c>
       <c r="I30">
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J30">
-        <v>10.93</v>
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.73</v>
       </c>
       <c r="K30">
         <v>123.83</v>
@@ -3440,10 +4832,12 @@
         <v>72982452.009999976</v>
       </c>
       <c r="I31">
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.6</v>
       </c>
       <c r="J31">
-        <v>20.5</v>
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>18.350000000000001</v>
       </c>
       <c r="K31">
         <v>230.75</v>
@@ -3481,10 +4875,12 @@
         <v>121378352.35999998</v>
       </c>
       <c r="I32">
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J32">
-        <v>9.52</v>
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.7999999999999989</v>
       </c>
       <c r="K32">
         <v>96.47</v>
@@ -3522,10 +4918,12 @@
         <v>10273003.439999998</v>
       </c>
       <c r="I33">
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J33">
-        <v>8.4325100000000024</v>
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.5800000000000018</v>
       </c>
       <c r="K33">
         <v>71.73</v>
@@ -3563,10 +4961,12 @@
         <v>55888851.890000001</v>
       </c>
       <c r="I34">
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J34">
-        <v>10.050000000000001</v>
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.1100000000000012</v>
       </c>
       <c r="K34">
         <v>118.8</v>
@@ -3604,10 +5004,12 @@
         <v>24870480.589999996</v>
       </c>
       <c r="I35">
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.07</v>
       </c>
       <c r="J35">
-        <v>12.31</v>
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.6</v>
       </c>
       <c r="K35">
         <v>96</v>
@@ -3645,10 +5047,12 @@
         <v>17041390.829999998</v>
       </c>
       <c r="I36">
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J36">
-        <v>1.4698800000000001</v>
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.76988000000000001</v>
       </c>
       <c r="K36">
         <v>9.68</v>
@@ -3686,10 +5090,12 @@
         <v>65516771.550000004</v>
       </c>
       <c r="I37">
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.11</v>
       </c>
       <c r="J37">
-        <v>1.2050000000000001</v>
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.105</v>
       </c>
       <c r="K37">
         <v>11.038</v>
@@ -3727,10 +5133,12 @@
         <v>122222123.75999999</v>
       </c>
       <c r="I38">
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="J38">
-        <v>7.6000000000000014</v>
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>6.7500000000000018</v>
       </c>
       <c r="K38">
         <v>103.21</v>
@@ -3768,10 +5176,12 @@
         <v>36553648.68</v>
       </c>
       <c r="I39">
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.5</v>
       </c>
       <c r="J39">
-        <v>5.6400000000000006</v>
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.32</v>
       </c>
       <c r="K39">
         <v>59.3</v>
@@ -3809,10 +5219,12 @@
         <v>43645504</v>
       </c>
       <c r="I40">
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.48</v>
       </c>
       <c r="J40">
-        <v>5.7</v>
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.2600000000000007</v>
       </c>
       <c r="K40">
         <v>75.06</v>
@@ -3850,10 +5262,12 @@
         <v>36094045.620000005</v>
       </c>
       <c r="I41">
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J41">
-        <v>10.5</v>
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K41">
         <v>133.13</v>
@@ -3891,10 +5305,12 @@
         <v>9462745.3899999987</v>
       </c>
       <c r="I42">
-        <v>0.46</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.5</v>
       </c>
       <c r="J42">
-        <v>6.0146879999999996</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.3846880000000006</v>
       </c>
       <c r="K42">
         <v>61.47</v>
@@ -3932,10 +5348,12 @@
         <v>23457469.460000005</v>
       </c>
       <c r="I43">
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J43">
-        <v>9.52</v>
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.73</v>
       </c>
       <c r="K43">
         <v>87.09</v>
@@ -3973,10 +5391,12 @@
         <v>63283042.920000009</v>
       </c>
       <c r="I44">
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.25</v>
       </c>
       <c r="J44">
-        <v>14.44</v>
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>13.75</v>
       </c>
       <c r="K44">
         <v>108</v>
@@ -4014,10 +5434,12 @@
         <v>16035258.359999999</v>
       </c>
       <c r="I45">
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.05</v>
       </c>
       <c r="J45">
-        <v>0.66500000000000015</v>
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.60200000000000009</v>
       </c>
       <c r="K45">
         <v>7.64</v>
@@ -4055,10 +5477,12 @@
         <v>6592420.8600000003</v>
       </c>
       <c r="I46">
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.36</v>
       </c>
       <c r="J46">
-        <v>4.5133999999999999</v>
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>4.0734000000000004</v>
       </c>
       <c r="K46">
         <v>47.54</v>
@@ -4096,10 +5520,12 @@
         <v>15308858.219999999</v>
       </c>
       <c r="I47">
-        <v>1.05</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J47">
-        <v>11.24</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.62</v>
       </c>
       <c r="K47">
         <v>161</v>
@@ -4137,10 +5563,12 @@
         <v>13367539.719999999</v>
       </c>
       <c r="I48">
-        <v>132.15</v>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>149.69999999999996</v>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>146.69999999999996</v>
       </c>
       <c r="K48">
         <v>282.99</v>
@@ -4178,10 +5606,12 @@
         <v>14955020.459999999</v>
       </c>
       <c r="I49">
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J49">
-        <v>10.49</v>
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.73</v>
       </c>
       <c r="K49">
         <v>92.3</v>
@@ -4219,10 +5649,12 @@
         <v>11660549.949999999</v>
       </c>
       <c r="I50">
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.22</v>
       </c>
       <c r="J50">
-        <v>9.120000000000001</v>
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.240000000000002</v>
       </c>
       <c r="K50">
         <v>57.5</v>
@@ -4260,10 +5692,12 @@
         <v>15729285.549999997</v>
       </c>
       <c r="I51">
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.85</v>
       </c>
       <c r="J51">
-        <v>10.269999999999998</v>
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.3499999999999979</v>
       </c>
       <c r="K51">
         <v>92</v>
@@ -4301,10 +5735,12 @@
         <v>109873347.93000001</v>
       </c>
       <c r="I52">
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J52">
-        <v>11.1</v>
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.3</v>
       </c>
       <c r="K52">
         <v>108.4</v>
@@ -4342,10 +5778,12 @@
         <v>14079065.840000002</v>
       </c>
       <c r="I53">
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.3</v>
       </c>
       <c r="J53">
-        <v>5.35</v>
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>3.2999999999999994</v>
       </c>
       <c r="K53">
         <v>61.18</v>
@@ -4383,10 +5821,12 @@
         <v>12024848.92</v>
       </c>
       <c r="I54">
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J54">
-        <v>1.2233099999999999</v>
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.1166499999999999</v>
       </c>
       <c r="K54">
         <v>8.2793333333333337</v>
@@ -4424,10 +5864,12 @@
         <v>29708919.929999996</v>
       </c>
       <c r="I55">
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>3.9372500000000001</v>
       </c>
       <c r="J55">
-        <v>26.837663000000006</v>
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>26.136378000000004</v>
       </c>
       <c r="K55">
         <v>198</v>
@@ -4465,10 +5907,12 @@
         <v>181259044.81</v>
       </c>
       <c r="I56">
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J56">
-        <v>15.05</v>
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>13.56</v>
       </c>
       <c r="K56">
         <v>122</v>
@@ -4506,10 +5950,12 @@
         <v>24365139.170000002</v>
       </c>
       <c r="I57">
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.18</v>
       </c>
       <c r="J57">
-        <v>14.209999999999999</v>
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>13.099999999999998</v>
       </c>
       <c r="K57">
         <v>94.36</v>
@@ -4547,10 +5993,12 @@
         <v>113831650.97999999</v>
       </c>
       <c r="I58">
-        <v>9.1999999999999998E-2</v>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="J58">
-        <v>0.87150000000000016</v>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.82850000000000001</v>
       </c>
       <c r="K58">
         <v>9.3699999999999992</v>
@@ -4588,10 +6036,12 @@
         <v>55690859.650000006</v>
       </c>
       <c r="I59">
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="J59">
-        <v>7.4099999999999993</v>
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>6.71</v>
       </c>
       <c r="K59">
         <v>80</v>
@@ -4629,10 +6079,12 @@
         <v>63015942.769999996</v>
       </c>
       <c r="I60">
-        <v>0.09</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.1</v>
       </c>
       <c r="J60">
-        <v>0.70820000000000016</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.69820000000000015</v>
       </c>
       <c r="K60">
         <v>8.1549999999999994</v>
@@ -4670,10 +6122,12 @@
         <v>36098845.580000006</v>
       </c>
       <c r="I61">
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J61">
-        <v>10.821</v>
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.0549999999999999</v>
       </c>
       <c r="K61">
         <v>101.33</v>
@@ -4711,10 +6165,12 @@
         <v>47544033.999999993</v>
       </c>
       <c r="I62">
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.75</v>
       </c>
       <c r="J62">
-        <v>9.5299999999999994</v>
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.4499999999999993</v>
       </c>
       <c r="K62">
         <v>97.87</v>
@@ -4752,10 +6208,12 @@
         <v>9047461.7699999996</v>
       </c>
       <c r="I63">
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J63">
-        <v>10.45</v>
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.59</v>
       </c>
       <c r="K63">
         <v>103.96</v>
@@ -4793,10 +6251,12 @@
         <v>17904272.699999996</v>
       </c>
       <c r="I64">
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="J64">
-        <v>0.87099999999999989</v>
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.78299999999999992</v>
       </c>
       <c r="K64">
         <v>8.66</v>
@@ -4834,10 +6294,12 @@
         <v>13366268.75</v>
       </c>
       <c r="I65">
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="J65">
-        <v>0.87599999999999978</v>
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.79599999999999993</v>
       </c>
       <c r="K65">
         <v>8.32</v>
@@ -4875,10 +6337,12 @@
         <v>7714016.2599999998</v>
       </c>
       <c r="I66">
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.6</v>
       </c>
       <c r="J66">
-        <v>7.4</v>
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>6.7600000000000007</v>
       </c>
       <c r="K66">
         <v>71.3</v>
@@ -4916,10 +6380,12 @@
         <v>10214958.84</v>
       </c>
       <c r="I67">
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.35</v>
       </c>
       <c r="J67">
-        <v>9.0500000000000007</v>
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.3500000000000014</v>
       </c>
       <c r="K67">
         <v>87.95</v>
@@ -4957,10 +6423,12 @@
         <v>7408090.709999999</v>
       </c>
       <c r="I68">
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.72</v>
       </c>
       <c r="J68">
-        <v>10.9</v>
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.67</v>
       </c>
       <c r="K68">
         <v>87.11</v>
@@ -4998,10 +6466,12 @@
         <v>17491391.050000004</v>
       </c>
       <c r="I69">
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.52</v>
       </c>
       <c r="J69">
-        <v>6.1099999999999994</v>
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.5999999999999988</v>
       </c>
       <c r="K69">
         <v>61</v>
@@ -5039,10 +6509,12 @@
         <v>35025355.119999997</v>
       </c>
       <c r="I70">
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.75</v>
       </c>
       <c r="J70">
-        <v>8.9</v>
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.25</v>
       </c>
       <c r="K70">
         <v>83</v>
@@ -5080,10 +6552,12 @@
         <v>8376889.3500000006</v>
       </c>
       <c r="I71">
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.65</v>
       </c>
       <c r="J71">
-        <v>7.8</v>
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>7.1</v>
       </c>
       <c r="K71">
         <v>72.91</v>
@@ -5121,10 +6595,12 @@
         <v>266680290.25</v>
       </c>
       <c r="I72">
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J72">
-        <v>10.389999999999999</v>
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.6799999999999979</v>
       </c>
       <c r="K72">
         <v>95.57</v>
@@ -5162,10 +6638,12 @@
         <v>434020491.94</v>
       </c>
       <c r="I73">
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J73">
-        <v>11.85</v>
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.719999999999999</v>
       </c>
       <c r="K73">
         <v>104.35</v>
@@ -5203,10 +6681,12 @@
         <v>388280548.97999996</v>
       </c>
       <c r="I74">
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J74">
-        <v>1.18</v>
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.0699999999999998</v>
       </c>
       <c r="K74">
         <v>10.57</v>
@@ -5244,10 +6724,12 @@
         <v>79183957.000000015</v>
       </c>
       <c r="I75">
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.75</v>
       </c>
       <c r="J75">
-        <v>9.08</v>
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.3600000000000012</v>
       </c>
       <c r="K75">
         <v>82</v>
@@ -5285,10 +6767,12 @@
         <v>129369539.58000001</v>
       </c>
       <c r="I76">
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J76">
-        <v>13.15</v>
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.950000000000001</v>
       </c>
       <c r="K76">
         <v>103.3</v>
@@ -5326,10 +6810,12 @@
         <v>187004686.37999997</v>
       </c>
       <c r="I77">
-        <v>6.2E-2</v>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J77">
-        <v>0.8819999999999999</v>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.83099999999999996</v>
       </c>
       <c r="K77">
         <v>8.49</v>
@@ -5367,10 +6853,12 @@
         <v>66314562.710000008</v>
       </c>
       <c r="I78">
-        <v>1.0806</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.96140000000000003</v>
       </c>
       <c r="J78">
-        <v>10.418700000000001</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.8448000000000011</v>
       </c>
       <c r="K78">
         <v>87.9</v>
@@ -5408,10 +6896,12 @@
         <v>36338676.219999991</v>
       </c>
       <c r="I79">
-        <v>0.37</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>4.4779999999999989</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>3.7879999999999994</v>
       </c>
       <c r="K79">
         <v>39.46</v>
@@ -5449,10 +6939,12 @@
         <v>110742991.23</v>
       </c>
       <c r="I80">
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.9</v>
       </c>
       <c r="J80">
-        <v>10.81</v>
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.8600000000000012</v>
       </c>
       <c r="K80">
         <v>106.48</v>
@@ -5490,10 +6982,12 @@
         <v>57426237.419999994</v>
       </c>
       <c r="I81">
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J81">
-        <v>9.7999999999999989</v>
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.7999999999999989</v>
       </c>
       <c r="K81">
         <v>94.57</v>
@@ -5531,10 +7025,12 @@
         <v>88247295.769999981</v>
       </c>
       <c r="I82">
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J82">
-        <v>11.45</v>
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.45</v>
       </c>
       <c r="K82">
         <v>105.12</v>
@@ -5572,10 +7068,12 @@
         <v>121237248.91</v>
       </c>
       <c r="I83">
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J83">
-        <v>12.850000000000003</v>
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.550000000000002</v>
       </c>
       <c r="K83">
         <v>102.8</v>
@@ -5613,10 +7111,12 @@
         <v>92005457.449999988</v>
       </c>
       <c r="I84">
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J84">
-        <v>1.0899999999999999</v>
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.97999999999999987</v>
       </c>
       <c r="K84">
         <v>9.56</v>
@@ -5654,10 +7154,12 @@
         <v>43145300.890000008</v>
       </c>
       <c r="I85">
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.85</v>
       </c>
       <c r="J85">
-        <v>10.150000000000002</v>
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.4</v>
       </c>
       <c r="K85">
         <v>89</v>
@@ -5695,10 +7197,12 @@
         <v>135530598.07999998</v>
       </c>
       <c r="I86">
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.11</v>
       </c>
       <c r="J86">
-        <v>1.2700000000000002</v>
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.1600000000000001</v>
       </c>
       <c r="K86">
         <v>9.84</v>
@@ -5736,10 +7240,12 @@
         <v>80667952.520000011</v>
       </c>
       <c r="I87">
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J87">
-        <v>9.7809999999999988</v>
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.2510000000000012</v>
       </c>
       <c r="K87">
         <v>89.14</v>
@@ -5777,10 +7283,12 @@
         <v>66314301.059999995</v>
       </c>
       <c r="I88">
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J88">
-        <v>11.05</v>
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.079999999999998</v>
       </c>
       <c r="K88">
         <v>94.31</v>
@@ -5818,10 +7326,12 @@
         <v>20254027.91</v>
       </c>
       <c r="I89">
-        <v>0.45</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.43</v>
       </c>
       <c r="J89">
-        <v>6.1599999999999993</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>5.7</v>
       </c>
       <c r="K89">
         <v>43.2</v>
@@ -5859,10 +7369,12 @@
         <v>69241938.239999995</v>
       </c>
       <c r="I90">
-        <v>0.9</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.95</v>
       </c>
       <c r="J90">
-        <v>11.71</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.660000000000002</v>
       </c>
       <c r="K90">
         <v>99.75</v>
@@ -5900,10 +7412,12 @@
         <v>41708882.420000002</v>
       </c>
       <c r="I91">
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.88</v>
       </c>
       <c r="J91">
-        <v>12.24</v>
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.91</v>
       </c>
       <c r="K91">
         <v>87.6</v>
@@ -5941,10 +7455,12 @@
         <v>169678506.62</v>
       </c>
       <c r="I92">
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J92">
-        <v>1.0199999999999998</v>
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.94999999999999973</v>
       </c>
       <c r="K92">
         <v>9.1300000000000008</v>
@@ -5982,10 +7498,12 @@
         <v>110813972.39</v>
       </c>
       <c r="I93">
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J93">
-        <v>1.3199999999999998</v>
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.1600000000000001</v>
       </c>
       <c r="K93">
         <v>11.18</v>
@@ -6023,10 +7541,12 @@
         <v>54809711.670000002</v>
       </c>
       <c r="I94">
-        <v>0.72</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.82</v>
       </c>
       <c r="J94">
-        <v>10.01</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.370000000000001</v>
       </c>
       <c r="K94">
         <v>88.16</v>
@@ -6064,10 +7584,12 @@
         <v>59035673.930000007</v>
       </c>
       <c r="I95">
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.9</v>
       </c>
       <c r="J95">
-        <v>10.99</v>
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.24</v>
       </c>
       <c r="K95">
         <v>92.43</v>
@@ -6105,10 +7627,12 @@
         <v>51016808.210000016</v>
       </c>
       <c r="I96">
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J96">
-        <v>1.1129999999999998</v>
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.0129999999999999</v>
       </c>
       <c r="K96">
         <v>9.93</v>
@@ -6146,10 +7670,12 @@
         <v>44459028.100000001</v>
       </c>
       <c r="I97">
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J97">
-        <v>10.33</v>
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>9.48</v>
       </c>
       <c r="K97">
         <v>86.91</v>
@@ -6187,10 +7713,12 @@
         <v>44941892.710000008</v>
       </c>
       <c r="I98">
-        <v>1.07</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J98">
-        <v>12.780000000000001</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.59</v>
       </c>
       <c r="K98">
         <v>88.3</v>
@@ -6228,10 +7756,12 @@
         <v>33534378.470000003</v>
       </c>
       <c r="I99">
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.05</v>
       </c>
       <c r="J99">
-        <v>12.21</v>
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>11.25</v>
       </c>
       <c r="K99">
         <v>91</v>
@@ -6269,10 +7799,12 @@
         <v>9946804.2700000014</v>
       </c>
       <c r="I100">
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.78</v>
       </c>
       <c r="J100">
-        <v>9.3199999999999985</v>
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.5</v>
       </c>
       <c r="K100">
         <v>74.67</v>
@@ -6310,10 +7842,12 @@
         <v>48051519.079999991</v>
       </c>
       <c r="I101">
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.34</v>
       </c>
       <c r="J101">
-        <v>16.400000000000002</v>
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>14.890000000000002</v>
       </c>
       <c r="K101">
         <v>103</v>
@@ -6351,10 +7885,12 @@
         <v>30747982.859999996</v>
       </c>
       <c r="I102">
-        <v>0.93</v>
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>0.95</v>
       </c>
       <c r="J102">
-        <v>11.45</v>
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.399999999999999</v>
       </c>
       <c r="K102">
         <v>100</v>
@@ -6392,10 +7928,12 @@
         <v>14200865.32</v>
       </c>
       <c r="I103">
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J103">
-        <v>9.6916999999999991</v>
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>8.8353999999999999</v>
       </c>
       <c r="K103">
         <v>83.5</v>
@@ -6433,10 +7971,12 @@
         <v>12559230.260000002</v>
       </c>
       <c r="I104">
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J104">
-        <v>11.55</v>
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.55</v>
       </c>
       <c r="K104">
         <v>100.49</v>
@@ -6474,10 +8014,12 @@
         <v>14588392.210000001</v>
       </c>
       <c r="I105">
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J105">
-        <v>1.1169999999999998</v>
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.026</v>
       </c>
       <c r="K105">
         <v>9.7959999999999994</v>
@@ -6515,10 +8057,12 @@
         <v>13140553.460000001</v>
       </c>
       <c r="I106">
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J106">
-        <v>1.1089999999999998</v>
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.99799999999999978</v>
       </c>
       <c r="K106">
         <v>9.081999999999999</v>
@@ -6556,10 +8100,12 @@
         <v>34273870.090000011</v>
       </c>
       <c r="I107">
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.11</v>
       </c>
       <c r="J107">
-        <v>1.2500000000000002</v>
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.1500000000000001</v>
       </c>
       <c r="K107">
         <v>9.49</v>
@@ -6597,10 +8143,12 @@
         <v>3934495.1900000009</v>
       </c>
       <c r="I108">
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.04</v>
       </c>
       <c r="J108">
-        <v>0.47999999999999993</v>
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.43999999999999995</v>
       </c>
       <c r="K108">
         <v>4.12</v>
@@ -6638,10 +8186,12 @@
         <v>8781482.5399999991</v>
       </c>
       <c r="I109">
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.24</v>
       </c>
       <c r="J109">
-        <v>10.930000000000001</v>
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.020000000000001</v>
       </c>
       <c r="K109">
         <v>98.59</v>
@@ -6679,10 +8229,12 @@
         <v>5187312.709999999</v>
       </c>
       <c r="I110">
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J110">
-        <v>1.1950000000000001</v>
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.095</v>
       </c>
       <c r="K110">
         <v>9.8000000000000007</v>
@@ -6720,10 +8272,12 @@
         <v>14458190.290000001</v>
       </c>
       <c r="I111">
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.08</v>
       </c>
       <c r="J111">
-        <v>1.1399999999999999</v>
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.03</v>
       </c>
       <c r="K111">
         <v>9.3800000000000008</v>
@@ -6761,10 +8315,12 @@
         <v>14362210.949999997</v>
       </c>
       <c r="I112">
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>1.2</v>
       </c>
       <c r="J112">
-        <v>10.85</v>
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.050000000000001</v>
       </c>
       <c r="K112">
         <v>86.59</v>
@@ -6802,10 +8358,12 @@
         <v>23351387.479999997</v>
       </c>
       <c r="I113">
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J113">
-        <v>12.070000000000002</v>
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.670000000000002</v>
       </c>
       <c r="K113">
         <v>90.85</v>
@@ -6843,10 +8401,12 @@
         <v>9149686.5599999987</v>
       </c>
       <c r="I114">
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J114">
-        <v>1.1539999999999999</v>
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.073</v>
       </c>
       <c r="K114">
         <v>9.5</v>
@@ -6884,10 +8444,12 @@
         <v>11044224.880000001</v>
       </c>
       <c r="I115">
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J115">
-        <v>1.18</v>
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.0699999999999998</v>
       </c>
       <c r="K115">
         <v>9.08</v>
@@ -6925,10 +8487,12 @@
         <v>14703901.189999999</v>
       </c>
       <c r="I116">
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="J116">
-        <v>1.2450000000000001</v>
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>1.1300000000000001</v>
       </c>
       <c r="K116">
         <v>9.7799999999999994</v>
@@ -6966,10 +8530,12 @@
         <v>26838422.190000009</v>
       </c>
       <c r="I117">
-        <v>0.95</v>
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>10.95</v>
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>10.85</v>
       </c>
       <c r="K117">
         <v>100</v>
@@ -7004,10 +8570,12 @@
         <v>2625526.3400000003</v>
       </c>
       <c r="I118">
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J118">
-        <v>1.0999999999999999</v>
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <v>0.98999999999999977</v>
       </c>
       <c r="K118">
         <v>9.09</v>

--- a/Base_ativos.xlsx
+++ b/Base_ativos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasCavalcante\Desktop\Relatorio_Passivos_Guardian\Relat-rios-Passivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA9C6A-2790-4F25-BC64-ED0ADB1E563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D21941-3AF9-422A-8317-AC698EBC69A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A27619D-CDB8-4F4E-8542-BA89588784BC}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>DIV Y12</t>
   </si>
   <si>
-    <t>COTA 2024</t>
-  </si>
-  <si>
-    <t>COTA 2023</t>
-  </si>
-  <si>
     <t>KNRI11.SA</t>
   </si>
   <si>
@@ -457,6 +451,12 @@
   </si>
   <si>
     <t>LIQUIDEZ - SOMA</t>
+  </si>
+  <si>
+    <t>DIV Y3</t>
+  </si>
+  <si>
+    <t>DIV Y6</t>
   </si>
 </sst>
 </file>
@@ -1855,15 +1855,17 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="IFIX_Corte_NOVO"/>
+      <sheetName val="PAINEL GERAL"/>
+      <sheetName val="ANGULOS"/>
       <sheetName val="Comparativo"/>
       <sheetName val="Comparativo LC"/>
       <sheetName val="Garfico Y1M MKT"/>
+      <sheetName val="BASE LISTA"/>
       <sheetName val="Comp. Formatado"/>
       <sheetName val="Comp. Formatado_wide"/>
       <sheetName val="Garfico Y12M MKT"/>
       <sheetName val="Angulo_JUN"/>
       <sheetName val="Base"/>
-      <sheetName val="ANGULOS"/>
       <sheetName val="Novo_ìndice_IFIX"/>
       <sheetName val="IFIX_Corte_Ajustado"/>
       <sheetName val="IFIX_Corte_Base_Antiga"/>
@@ -1876,10 +1878,16 @@
           <cell r="B9" t="str">
             <v>KNRI11</v>
           </cell>
-          <cell r="EK9">
+          <cell r="EO9">
             <v>1</v>
           </cell>
-          <cell r="EN9">
+          <cell r="EP9">
+            <v>3</v>
+          </cell>
+          <cell r="EQ9">
+            <v>6</v>
+          </cell>
+          <cell r="ER9">
             <v>11</v>
           </cell>
         </row>
@@ -1887,109 +1895,169 @@
           <cell r="B10" t="str">
             <v>TVRI11</v>
           </cell>
-          <cell r="EK10">
-            <v>0.98</v>
-          </cell>
-          <cell r="EN10">
-            <v>10.730000000000002</v>
+          <cell r="EO10">
+            <v>1.03</v>
+          </cell>
+          <cell r="EP10">
+            <v>2.9899999999999998</v>
+          </cell>
+          <cell r="EQ10">
+            <v>5.93</v>
+          </cell>
+          <cell r="ER10">
+            <v>10.790000000000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
             <v>ALZR11</v>
           </cell>
-          <cell r="EK11">
+          <cell r="EO11">
             <v>0.80549999999999999</v>
           </cell>
-          <cell r="EN11">
-            <v>8.3589379999999984</v>
+          <cell r="EP11">
+            <v>2.3860000000000001</v>
+          </cell>
+          <cell r="EQ11">
+            <v>4.6212090000000003</v>
+          </cell>
+          <cell r="ER11">
+            <v>8.3668829999999996</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
             <v>GARE11</v>
           </cell>
-          <cell r="EK12">
-            <v>9.1999999999999998E-2</v>
-          </cell>
-          <cell r="EN12">
-            <v>0.97399999999999975</v>
+          <cell r="EO12">
+            <v>8.3000000000000004E-2</v>
+          </cell>
+          <cell r="EP12">
+            <v>0.26700000000000002</v>
+          </cell>
+          <cell r="EQ12">
+            <v>0.53599999999999992</v>
+          </cell>
+          <cell r="ER12">
+            <v>0.97099999999999975</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>RBRP11</v>
           </cell>
-          <cell r="EK13">
-            <v>0.54</v>
-          </cell>
-          <cell r="EN13">
-            <v>5.71</v>
+          <cell r="EO13">
+            <v>0.41</v>
+          </cell>
+          <cell r="EP13">
+            <v>1.49</v>
+          </cell>
+          <cell r="EQ13">
+            <v>3.0900000000000003</v>
+          </cell>
+          <cell r="ER13">
+            <v>5.98</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
             <v>SARE11</v>
           </cell>
-          <cell r="EK14">
-            <v>0.02</v>
-          </cell>
-          <cell r="EN14">
-            <v>0.29599999999999999</v>
+          <cell r="EO14">
+            <v>2.3E-2</v>
+          </cell>
+          <cell r="EP14">
+            <v>6.3E-2</v>
+          </cell>
+          <cell r="EQ14">
+            <v>0.12300000000000001</v>
+          </cell>
+          <cell r="ER14">
+            <v>0.28300000000000003</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
             <v>ZAVI11</v>
           </cell>
-          <cell r="EK15">
-            <v>1.1499999999999999</v>
-          </cell>
-          <cell r="EN15">
-            <v>12.95</v>
+          <cell r="EO15">
+            <v>1.05</v>
+          </cell>
+          <cell r="EP15">
+            <v>3.35</v>
+          </cell>
+          <cell r="EQ15">
+            <v>6.9</v>
+          </cell>
+          <cell r="ER15">
+            <v>12.66</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
             <v>HGRU11</v>
           </cell>
-          <cell r="EK16">
-            <v>1.9</v>
-          </cell>
-          <cell r="EN16">
-            <v>10.899999999999999</v>
+          <cell r="EO16">
+            <v>0.9</v>
+          </cell>
+          <cell r="EP16">
+            <v>3.6999999999999997</v>
+          </cell>
+          <cell r="EQ16">
+            <v>6.2999999999999989</v>
+          </cell>
+          <cell r="ER16">
+            <v>10.949999999999998</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
             <v>TRXF11</v>
           </cell>
-          <cell r="EK17">
-            <v>2.5</v>
-          </cell>
-          <cell r="EN17">
-            <v>11.8</v>
+          <cell r="EO17">
+            <v>0.93</v>
+          </cell>
+          <cell r="EP17">
+            <v>4.3600000000000003</v>
+          </cell>
+          <cell r="EQ17">
+            <v>7.1499999999999995</v>
+          </cell>
+          <cell r="ER17">
+            <v>11.830000000000002</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
             <v>RBVA11</v>
           </cell>
-          <cell r="EK18">
+          <cell r="EO18">
             <v>0.9</v>
           </cell>
-          <cell r="EN18">
-            <v>10.8</v>
+          <cell r="EP18">
+            <v>2.7</v>
+          </cell>
+          <cell r="EQ18">
+            <v>5.7</v>
+          </cell>
+          <cell r="ER18">
+            <v>10.7</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
             <v>VIUR11</v>
           </cell>
-          <cell r="EK19">
+          <cell r="EO19">
             <v>6.7000000000000004E-2</v>
           </cell>
-          <cell r="EN19">
+          <cell r="EP19">
+            <v>0.20100000000000001</v>
+          </cell>
+          <cell r="EQ19">
+            <v>0.40200000000000002</v>
+          </cell>
+          <cell r="ER19">
             <v>0.73699999999999988</v>
           </cell>
         </row>
@@ -1997,10 +2065,16 @@
           <cell r="B20" t="str">
             <v>HGLG11</v>
           </cell>
-          <cell r="EK20">
+          <cell r="EO20">
             <v>1.1000000000000001</v>
           </cell>
-          <cell r="EN20">
+          <cell r="EP20">
+            <v>3.3000000000000003</v>
+          </cell>
+          <cell r="EQ20">
+            <v>6.6</v>
+          </cell>
+          <cell r="ER20">
             <v>12.099999999999998</v>
           </cell>
         </row>
@@ -2008,43 +2082,67 @@
           <cell r="B21" t="str">
             <v>BTLG11</v>
           </cell>
-          <cell r="EK21">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN21">
-            <v>8.4599999999999991</v>
+          <cell r="EO21">
+            <v>0.86819100000000005</v>
+          </cell>
+          <cell r="EP21">
+            <v>2.428191</v>
+          </cell>
+          <cell r="EQ21">
+            <v>4.7481910000000003</v>
+          </cell>
+          <cell r="ER21">
+            <v>8.5481909999999992</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
             <v>XPLG11</v>
           </cell>
-          <cell r="EK22">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN22">
-            <v>8.5800000000000018</v>
+          <cell r="EO22">
+            <v>0.82</v>
+          </cell>
+          <cell r="EP22">
+            <v>2.38</v>
+          </cell>
+          <cell r="EQ22">
+            <v>4.7200000000000006</v>
+          </cell>
+          <cell r="ER22">
+            <v>8.620000000000001</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
             <v>LVBI11</v>
           </cell>
-          <cell r="EK23">
+          <cell r="EO23">
             <v>0.83</v>
           </cell>
-          <cell r="EN23">
-            <v>9.620000000000001</v>
+          <cell r="EP23">
+            <v>2.4899999999999998</v>
+          </cell>
+          <cell r="EQ23">
+            <v>5.05</v>
+          </cell>
+          <cell r="ER23">
+            <v>9.5500000000000007</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
             <v>BRCO11</v>
           </cell>
-          <cell r="EK24">
+          <cell r="EO24">
             <v>0.87</v>
           </cell>
-          <cell r="EN24">
+          <cell r="EP24">
+            <v>2.61</v>
+          </cell>
+          <cell r="EQ24">
+            <v>5.22</v>
+          </cell>
+          <cell r="ER24">
             <v>9.5699999999999985</v>
           </cell>
         </row>
@@ -2052,219 +2150,339 @@
           <cell r="B25" t="str">
             <v>VILG11</v>
           </cell>
-          <cell r="EK25">
-            <v>0.63</v>
-          </cell>
-          <cell r="EN25">
-            <v>6.74</v>
+          <cell r="EO25">
+            <v>0.65</v>
+          </cell>
+          <cell r="EP25">
+            <v>1.9</v>
+          </cell>
+          <cell r="EQ25">
+            <v>3.75</v>
+          </cell>
+          <cell r="ER25">
+            <v>6.83</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
             <v>HSLG11</v>
           </cell>
-          <cell r="EK26">
-            <v>0.74</v>
-          </cell>
-          <cell r="EN26">
-            <v>8.14</v>
+          <cell r="EO26">
+            <v>0.65</v>
+          </cell>
+          <cell r="EP26">
+            <v>2.13</v>
+          </cell>
+          <cell r="EQ26">
+            <v>4.3500000000000005</v>
+          </cell>
+          <cell r="ER26">
+            <v>8.0500000000000007</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
             <v>GGRC11</v>
           </cell>
-          <cell r="EK27">
-            <v>0.1</v>
-          </cell>
-          <cell r="EN27">
-            <v>1.0249999999999999</v>
+          <cell r="EO27">
+            <v>9.5000000000000001E-2</v>
+          </cell>
+          <cell r="EP27">
+            <v>0.29000000000000004</v>
+          </cell>
+          <cell r="EQ27">
+            <v>0.58099999999999996</v>
+          </cell>
+          <cell r="ER27">
+            <v>1.0349999999999999</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
             <v>TRBL11</v>
           </cell>
-          <cell r="EK28">
+          <cell r="EO28">
             <v>0.62</v>
           </cell>
-          <cell r="EN28">
-            <v>8.6599999999999984</v>
+          <cell r="EP28">
+            <v>1.8599999999999999</v>
+          </cell>
+          <cell r="EQ28">
+            <v>4.18</v>
+          </cell>
+          <cell r="ER28">
+            <v>8.4299999999999979</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
             <v>XPIN11</v>
           </cell>
-          <cell r="EK29">
+          <cell r="EO29">
             <v>0.74</v>
           </cell>
-          <cell r="EN29">
-            <v>7.15</v>
+          <cell r="EP29">
+            <v>2.2199999999999998</v>
+          </cell>
+          <cell r="EQ29">
+            <v>4.32</v>
+          </cell>
+          <cell r="ER29">
+            <v>7.4200000000000008</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
             <v>RBRL11</v>
           </cell>
-          <cell r="EK30">
-            <v>0.77</v>
-          </cell>
-          <cell r="EN30">
-            <v>7.5800000000000018</v>
+          <cell r="EO30">
+            <v>0.71</v>
+          </cell>
+          <cell r="EP30">
+            <v>2.25</v>
+          </cell>
+          <cell r="EQ30">
+            <v>4.51</v>
+          </cell>
+          <cell r="ER30">
+            <v>7.7600000000000016</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
             <v>BTAL11</v>
           </cell>
-          <cell r="EK31">
+          <cell r="EO31">
             <v>0.84</v>
           </cell>
-          <cell r="EN31">
-            <v>8.67</v>
+          <cell r="EP31">
+            <v>2.52</v>
+          </cell>
+          <cell r="EQ31">
+            <v>5.04</v>
+          </cell>
+          <cell r="ER31">
+            <v>8.86</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
             <v>PATL11</v>
           </cell>
-          <cell r="EK32">
+          <cell r="EO32">
             <v>0.56999999999999995</v>
           </cell>
-          <cell r="EN32">
-            <v>6.3599999999999985</v>
+          <cell r="EP32">
+            <v>1.71</v>
+          </cell>
+          <cell r="EQ32">
+            <v>3.4199999999999995</v>
+          </cell>
+          <cell r="ER32">
+            <v>6.3299999999999992</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
             <v>INLG11</v>
           </cell>
-          <cell r="EK33">
-            <v>0.8</v>
-          </cell>
-          <cell r="EN33">
-            <v>8.27</v>
+          <cell r="EO33">
+            <v>0.74</v>
+          </cell>
+          <cell r="EP33">
+            <v>2.34</v>
+          </cell>
+          <cell r="EQ33">
+            <v>4.68</v>
+          </cell>
+          <cell r="ER33">
+            <v>8.3000000000000007</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
             <v>RZAT11</v>
           </cell>
-          <cell r="EK34">
+          <cell r="EO34">
             <v>1</v>
           </cell>
-          <cell r="EN34">
-            <v>11.650000000000002</v>
+          <cell r="EP34">
+            <v>2.98</v>
+          </cell>
+          <cell r="EQ34">
+            <v>6.0500000000000007</v>
+          </cell>
+          <cell r="ER34">
+            <v>11.530000000000001</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
             <v>BLMG11</v>
           </cell>
-          <cell r="EK35">
-            <v>0.5</v>
-          </cell>
-          <cell r="EN35">
-            <v>4.2200000000000006</v>
+          <cell r="EO35">
+            <v>0.35</v>
+          </cell>
+          <cell r="EP35">
+            <v>0.85</v>
+          </cell>
+          <cell r="EQ35">
+            <v>2.35</v>
+          </cell>
+          <cell r="ER35">
+            <v>3.6900000000000004</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
             <v>XPML11</v>
           </cell>
-          <cell r="EK36">
+          <cell r="EO36">
             <v>0.92</v>
           </cell>
-          <cell r="EN36">
-            <v>10.07</v>
+          <cell r="EP36">
+            <v>2.7600000000000002</v>
+          </cell>
+          <cell r="EQ36">
+            <v>5.5200000000000005</v>
+          </cell>
+          <cell r="ER36">
+            <v>10.090000000000002</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
             <v>VISC11</v>
           </cell>
-          <cell r="EK37">
+          <cell r="EO37">
             <v>0.8</v>
           </cell>
-          <cell r="EN37">
-            <v>9.73</v>
+          <cell r="EP37">
+            <v>2.4000000000000004</v>
+          </cell>
+          <cell r="EQ37">
+            <v>4.83</v>
+          </cell>
+          <cell r="ER37">
+            <v>9.5299999999999994</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
             <v>HGBS11</v>
           </cell>
-          <cell r="EK38">
+          <cell r="EO38">
             <v>1.6</v>
           </cell>
-          <cell r="EN38">
-            <v>18.350000000000001</v>
+          <cell r="EP38">
+            <v>4.8000000000000007</v>
+          </cell>
+          <cell r="EQ38">
+            <v>9.6</v>
+          </cell>
+          <cell r="ER38">
+            <v>18.2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
             <v>HSML11</v>
           </cell>
-          <cell r="EK39">
-            <v>0.8</v>
-          </cell>
-          <cell r="EN39">
-            <v>8.7999999999999989</v>
+          <cell r="EO39">
+            <v>0.65</v>
+          </cell>
+          <cell r="EP39">
+            <v>2.25</v>
+          </cell>
+          <cell r="EQ39">
+            <v>4.6499999999999995</v>
+          </cell>
+          <cell r="ER39">
+            <v>8.6499999999999986</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
             <v>GZIT11</v>
           </cell>
-          <cell r="EK40">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN40">
-            <v>8.5800000000000018</v>
+          <cell r="EO40">
+            <v>0</v>
+          </cell>
+          <cell r="EP40">
+            <v>1.56</v>
+          </cell>
+          <cell r="EQ40">
+            <v>3.9000000000000004</v>
+          </cell>
+          <cell r="ER40">
+            <v>7.8000000000000016</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
             <v>MALL11</v>
           </cell>
-          <cell r="EK41">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN41">
-            <v>9.1100000000000012</v>
+          <cell r="EO41">
+            <v>0.83</v>
+          </cell>
+          <cell r="EP41">
+            <v>2.3899999999999997</v>
+          </cell>
+          <cell r="EQ41">
+            <v>4.7300000000000004</v>
+          </cell>
+          <cell r="ER41">
+            <v>9.02</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
             <v>BPML11</v>
           </cell>
-          <cell r="EK42">
+          <cell r="EO42">
             <v>1.07</v>
           </cell>
-          <cell r="EN42">
-            <v>11.6</v>
+          <cell r="EP42">
+            <v>3.21</v>
+          </cell>
+          <cell r="EQ42">
+            <v>6.4200000000000008</v>
+          </cell>
+          <cell r="ER42">
+            <v>11.65</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
             <v>AJFI11</v>
           </cell>
-          <cell r="EK43">
+          <cell r="EO43">
             <v>7.0000000000000007E-2</v>
           </cell>
-          <cell r="EN43">
-            <v>0.76988000000000001</v>
+          <cell r="EP43">
+            <v>0.21000000000000002</v>
+          </cell>
+          <cell r="EQ43">
+            <v>0.41827000000000003</v>
+          </cell>
+          <cell r="ER43">
+            <v>0.74788000000000021</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
             <v>CPSH11</v>
           </cell>
-          <cell r="EK44">
-            <v>0.11</v>
-          </cell>
-          <cell r="EN44">
+          <cell r="EO44">
+            <v>0.1</v>
+          </cell>
+          <cell r="EP44">
+            <v>0.32</v>
+          </cell>
+          <cell r="EQ44">
+            <v>0.62</v>
+          </cell>
+          <cell r="ER44">
             <v>1.105</v>
           </cell>
         </row>
@@ -2272,76 +2490,118 @@
           <cell r="B45" t="str">
             <v>PVBI11</v>
           </cell>
-          <cell r="EK45">
+          <cell r="EO45">
             <v>0.55000000000000004</v>
           </cell>
-          <cell r="EN45">
-            <v>6.7500000000000018</v>
+          <cell r="EP45">
+            <v>1.6500000000000001</v>
+          </cell>
+          <cell r="EQ45">
+            <v>3.4</v>
+          </cell>
+          <cell r="ER45">
+            <v>6.6500000000000012</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
             <v>BRCR11</v>
           </cell>
-          <cell r="EK46">
-            <v>0.5</v>
-          </cell>
-          <cell r="EN46">
-            <v>5.32</v>
+          <cell r="EO46">
+            <v>0.48</v>
+          </cell>
+          <cell r="EP46">
+            <v>1.48</v>
+          </cell>
+          <cell r="EQ46">
+            <v>2.98</v>
+          </cell>
+          <cell r="ER46">
+            <v>5.48</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
             <v>JSRE11</v>
           </cell>
-          <cell r="EK47">
+          <cell r="EO47">
             <v>0.48</v>
           </cell>
-          <cell r="EN47">
-            <v>5.2600000000000007</v>
+          <cell r="EP47">
+            <v>1.44</v>
+          </cell>
+          <cell r="EQ47">
+            <v>2.88</v>
+          </cell>
+          <cell r="ER47">
+            <v>5.2800000000000011</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
             <v>HGRE11</v>
           </cell>
-          <cell r="EK48">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN48">
-            <v>9.3000000000000007</v>
+          <cell r="EO48">
+            <v>0.85</v>
+          </cell>
+          <cell r="EP48">
+            <v>2.41</v>
+          </cell>
+          <cell r="EQ48">
+            <v>4.7500000000000009</v>
+          </cell>
+          <cell r="ER48">
+            <v>9.370000000000001</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
             <v>BROF11</v>
           </cell>
-          <cell r="EK49">
-            <v>0.5</v>
-          </cell>
-          <cell r="EN49">
-            <v>5.3846880000000006</v>
+          <cell r="EO49">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="EP49">
+            <v>1.5299999999999998</v>
+          </cell>
+          <cell r="EQ49">
+            <v>2.82</v>
+          </cell>
+          <cell r="ER49">
+            <v>5.4146879999999999</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
             <v>GTWR11</v>
           </cell>
-          <cell r="EK50">
+          <cell r="EO50">
             <v>0.83</v>
           </cell>
-          <cell r="EN50">
-            <v>8.73</v>
+          <cell r="EP50">
+            <v>2.4500000000000002</v>
+          </cell>
+          <cell r="EQ50">
+            <v>4.82</v>
+          </cell>
+          <cell r="ER50">
+            <v>8.77</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
             <v>KORE11</v>
           </cell>
-          <cell r="EK51">
+          <cell r="EO51">
             <v>1.25</v>
           </cell>
-          <cell r="EN51">
+          <cell r="EP51">
+            <v>3.75</v>
+          </cell>
+          <cell r="EQ51">
+            <v>7.5</v>
+          </cell>
+          <cell r="ER51">
             <v>13.75</v>
           </cell>
         </row>
@@ -2349,406 +2609,628 @@
           <cell r="B52" t="str">
             <v>VINO11</v>
           </cell>
-          <cell r="EK52">
+          <cell r="EO52">
             <v>0.05</v>
           </cell>
-          <cell r="EN52">
-            <v>0.60200000000000009</v>
+          <cell r="EP52">
+            <v>0.15000000000000002</v>
+          </cell>
+          <cell r="EQ52">
+            <v>0.3</v>
+          </cell>
+          <cell r="ER52">
+            <v>0.59700000000000009</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
             <v>RECT11</v>
           </cell>
-          <cell r="EK53">
+          <cell r="EO53">
             <v>0.36</v>
           </cell>
-          <cell r="EN53">
-            <v>4.0734000000000004</v>
+          <cell r="EP53">
+            <v>1.08</v>
+          </cell>
+          <cell r="EQ53">
+            <v>2.1599999999999997</v>
+          </cell>
+          <cell r="ER53">
+            <v>3.9933999999999998</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
             <v>RCRB11</v>
           </cell>
-          <cell r="EK54">
-            <v>1.1100000000000001</v>
-          </cell>
-          <cell r="EN54">
-            <v>10.62</v>
+          <cell r="EO54">
+            <v>0.85</v>
+          </cell>
+          <cell r="EP54">
+            <v>2.81</v>
+          </cell>
+          <cell r="EQ54">
+            <v>5.7700000000000005</v>
+          </cell>
+          <cell r="ER54">
+            <v>10.46</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55" t="str">
             <v>HGPO11</v>
           </cell>
-          <cell r="EK55">
+          <cell r="EO55">
             <v>0</v>
           </cell>
-          <cell r="EN55">
-            <v>146.69999999999996</v>
+          <cell r="EP55">
+            <v>132.15</v>
+          </cell>
+          <cell r="EQ55">
+            <v>137.29999999999998</v>
+          </cell>
+          <cell r="ER55">
+            <v>145.19999999999996</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56" t="str">
             <v>TEPP11</v>
           </cell>
-          <cell r="EK56">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN56">
-            <v>9.73</v>
+          <cell r="EO56">
+            <v>0.8</v>
+          </cell>
+          <cell r="EP56">
+            <v>2.3600000000000003</v>
+          </cell>
+          <cell r="EQ56">
+            <v>4.7000000000000011</v>
+          </cell>
+          <cell r="ER56">
+            <v>9.89</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57" t="str">
             <v>AIEC11</v>
           </cell>
-          <cell r="EK57">
-            <v>1.22</v>
-          </cell>
-          <cell r="EN57">
-            <v>8.240000000000002</v>
+          <cell r="EO57">
+            <v>0.17</v>
+          </cell>
+          <cell r="EP57">
+            <v>2.0099999999999998</v>
+          </cell>
+          <cell r="EQ57">
+            <v>4.09</v>
+          </cell>
+          <cell r="ER57">
+            <v>7.7000000000000011</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58" t="str">
             <v>FATN11</v>
           </cell>
-          <cell r="EK58">
-            <v>0.85</v>
-          </cell>
-          <cell r="EN58">
-            <v>9.3499999999999979</v>
+          <cell r="EO58">
+            <v>0.8</v>
+          </cell>
+          <cell r="EP58">
+            <v>2.5</v>
+          </cell>
+          <cell r="EQ58">
+            <v>5.05</v>
+          </cell>
+          <cell r="ER58">
+            <v>9.2999999999999989</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59" t="str">
             <v>RZTR11</v>
           </cell>
-          <cell r="EK59">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="EN59">
-            <v>10.3</v>
+          <cell r="EO59">
+            <v>1.05</v>
+          </cell>
+          <cell r="EP59">
+            <v>3.3000000000000003</v>
+          </cell>
+          <cell r="EQ59">
+            <v>6.0000000000000009</v>
+          </cell>
+          <cell r="ER59">
+            <v>10.500000000000002</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
             <v>BTRA11</v>
           </cell>
-          <cell r="EK60">
-            <v>0.3</v>
-          </cell>
-          <cell r="EN60">
-            <v>3.2999999999999994</v>
+          <cell r="EO60">
+            <v>0</v>
+          </cell>
+          <cell r="EP60">
+            <v>0.6</v>
+          </cell>
+          <cell r="EQ60">
+            <v>1.5</v>
+          </cell>
+          <cell r="ER60">
+            <v>2.9999999999999996</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
             <v>SNEL11</v>
           </cell>
-          <cell r="EK61">
+          <cell r="EO61">
             <v>0.1</v>
           </cell>
-          <cell r="EN61">
-            <v>1.1166499999999999</v>
+          <cell r="EP61">
+            <v>0.30000000000000004</v>
+          </cell>
+          <cell r="EQ61">
+            <v>0.6</v>
+          </cell>
+          <cell r="ER61">
+            <v>1.1133199999999999</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
             <v>HTMX11</v>
           </cell>
-          <cell r="EK62">
-            <v>3.9372500000000001</v>
-          </cell>
-          <cell r="EN62">
-            <v>26.136378000000004</v>
+          <cell r="EO62">
+            <v>1.2302</v>
+          </cell>
+          <cell r="EP62">
+            <v>8.5829880000000003</v>
+          </cell>
+          <cell r="EQ62">
+            <v>15.231482</v>
+          </cell>
+          <cell r="ER62">
+            <v>24.766578000000003</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63" t="str">
             <v>TGAR11</v>
           </cell>
-          <cell r="EK63">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="EN63">
-            <v>13.56</v>
+          <cell r="EO63">
+            <v>1</v>
+          </cell>
+          <cell r="EP63">
+            <v>3.25</v>
+          </cell>
+          <cell r="EQ63">
+            <v>6.66</v>
+          </cell>
+          <cell r="ER63">
+            <v>13.23</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64" t="str">
             <v>MFII11</v>
           </cell>
-          <cell r="EK64">
-            <v>1.18</v>
-          </cell>
-          <cell r="EN64">
-            <v>13.099999999999998</v>
+          <cell r="EO64">
+            <v>1.1200000000000001</v>
+          </cell>
+          <cell r="EP64">
+            <v>3.4699999999999998</v>
+          </cell>
+          <cell r="EQ64">
+            <v>7.01</v>
+          </cell>
+          <cell r="ER64">
+            <v>13.009999999999998</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65" t="str">
             <v>BTHF11</v>
           </cell>
-          <cell r="EK65">
+          <cell r="EO65">
             <v>9.7000000000000003E-2</v>
           </cell>
-          <cell r="EN65">
-            <v>0.82850000000000001</v>
+          <cell r="EP65">
+            <v>0.29134700000000002</v>
+          </cell>
+          <cell r="EQ65">
+            <v>0.52334700000000001</v>
+          </cell>
+          <cell r="ER65">
+            <v>0.88034700000000021</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66" t="str">
             <v>HFOF11</v>
           </cell>
-          <cell r="EK66">
+          <cell r="EO66">
             <v>0.56000000000000005</v>
           </cell>
-          <cell r="EN66">
-            <v>6.71</v>
+          <cell r="EP66">
+            <v>1.6800000000000002</v>
+          </cell>
+          <cell r="EQ66">
+            <v>3.49</v>
+          </cell>
+          <cell r="ER66">
+            <v>6.64</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67" t="str">
             <v>RBRF11</v>
           </cell>
-          <cell r="EK67">
-            <v>0.1</v>
-          </cell>
-          <cell r="EN67">
-            <v>0.69820000000000015</v>
+          <cell r="EO67">
+            <v>0.111</v>
+          </cell>
+          <cell r="EP67">
+            <v>0.30100000000000005</v>
+          </cell>
+          <cell r="EQ67">
+            <v>0.46600000000000003</v>
+          </cell>
+          <cell r="ER67">
+            <v>0.7542000000000002</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68" t="str">
             <v>JSAF11</v>
           </cell>
-          <cell r="EK68">
+          <cell r="EO68">
             <v>9.0999999999999998E-2</v>
           </cell>
-          <cell r="EN68">
-            <v>1.0549999999999999</v>
+          <cell r="EP68">
+            <v>0.27300000000000002</v>
+          </cell>
+          <cell r="EQ68">
+            <v>0.54599999999999993</v>
+          </cell>
+          <cell r="ER68">
+            <v>1.0459999999999998</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69" t="str">
             <v>KFOF11</v>
           </cell>
-          <cell r="EK69">
+          <cell r="EO69">
             <v>0.75</v>
           </cell>
-          <cell r="EN69">
-            <v>8.4499999999999993</v>
+          <cell r="EP69">
+            <v>2.25</v>
+          </cell>
+          <cell r="EQ69">
+            <v>4.5</v>
+          </cell>
+          <cell r="ER69">
+            <v>8.4</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70" t="str">
             <v>BCIA11</v>
           </cell>
-          <cell r="EK70">
-            <v>0.95</v>
-          </cell>
-          <cell r="EN70">
-            <v>9.59</v>
+          <cell r="EO70">
+            <v>0.84</v>
+          </cell>
+          <cell r="EP70">
+            <v>2.63</v>
+          </cell>
+          <cell r="EQ70">
+            <v>5.21</v>
+          </cell>
+          <cell r="ER70">
+            <v>9.5599999999999987</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71" t="str">
             <v>KISU11</v>
           </cell>
-          <cell r="EK71">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="EN71">
-            <v>0.78299999999999992</v>
+          <cell r="EO71">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="EP71">
+            <v>0.20400000000000001</v>
+          </cell>
+          <cell r="EQ71">
+            <v>0.40800000000000003</v>
+          </cell>
+          <cell r="ER71">
+            <v>0.77799999999999991</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72" t="str">
             <v>XPSF11</v>
           </cell>
-          <cell r="EK72">
-            <v>7.5999999999999998E-2</v>
-          </cell>
-          <cell r="EN72">
-            <v>0.79599999999999993</v>
+          <cell r="EO72">
+            <v>0.06</v>
+          </cell>
+          <cell r="EP72">
+            <v>0.20600000000000002</v>
+          </cell>
+          <cell r="EQ72">
+            <v>0.41600000000000004</v>
+          </cell>
+          <cell r="ER72">
+            <v>0.78099999999999992</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
             <v>BPFF11</v>
           </cell>
-          <cell r="EK73">
+          <cell r="EO73">
             <v>0.6</v>
           </cell>
-          <cell r="EN73">
-            <v>6.7600000000000007</v>
+          <cell r="EP73">
+            <v>1.7999999999999998</v>
+          </cell>
+          <cell r="EQ73">
+            <v>3.64</v>
+          </cell>
+          <cell r="ER73">
+            <v>6.74</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
             <v>HGFF11</v>
           </cell>
-          <cell r="EK74">
-            <v>1.35</v>
-          </cell>
-          <cell r="EN74">
-            <v>8.3500000000000014</v>
+          <cell r="EO74">
+            <v>0.68</v>
+          </cell>
+          <cell r="EP74">
+            <v>2.7300000000000004</v>
+          </cell>
+          <cell r="EQ74">
+            <v>4.830000000000001</v>
+          </cell>
+          <cell r="ER74">
+            <v>8.3300000000000018</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
             <v>SNFF11</v>
           </cell>
-          <cell r="EK75">
+          <cell r="EO75">
             <v>0.72</v>
           </cell>
-          <cell r="EN75">
-            <v>9.67</v>
+          <cell r="EP75">
+            <v>2.16</v>
+          </cell>
+          <cell r="EQ75">
+            <v>4.88</v>
+          </cell>
+          <cell r="ER75">
+            <v>9.7000000000000011</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
             <v>RBFF11</v>
           </cell>
-          <cell r="EK76">
-            <v>0.52</v>
-          </cell>
-          <cell r="EN76">
-            <v>5.5999999999999988</v>
+          <cell r="EO76">
+            <v>0.51</v>
+          </cell>
+          <cell r="EP76">
+            <v>1.54</v>
+          </cell>
+          <cell r="EQ76">
+            <v>3.0699999999999994</v>
+          </cell>
+          <cell r="ER76">
+            <v>5.6099999999999985</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
             <v>RVBI11</v>
           </cell>
-          <cell r="EK77">
-            <v>0.75</v>
-          </cell>
-          <cell r="EN77">
-            <v>8.25</v>
+          <cell r="EO77">
+            <v>0.7</v>
+          </cell>
+          <cell r="EP77">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="EQ77">
+            <v>4.45</v>
+          </cell>
+          <cell r="ER77">
+            <v>8.1999999999999993</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
             <v>BBFO11</v>
           </cell>
-          <cell r="EK78">
-            <v>0.65</v>
-          </cell>
-          <cell r="EN78">
-            <v>7.1</v>
+          <cell r="EO78">
+            <v>0.72</v>
+          </cell>
+          <cell r="EP78">
+            <v>1.9900000000000002</v>
+          </cell>
+          <cell r="EQ78">
+            <v>3.89</v>
+          </cell>
+          <cell r="ER78">
+            <v>7.1800000000000006</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
             <v>KNIP11</v>
           </cell>
-          <cell r="EK79">
-            <v>1</v>
-          </cell>
-          <cell r="EN79">
-            <v>9.6799999999999979</v>
+          <cell r="EO79">
+            <v>0.95</v>
+          </cell>
+          <cell r="EP79">
+            <v>2.85</v>
+          </cell>
+          <cell r="EQ79">
+            <v>5.0599999999999996</v>
+          </cell>
+          <cell r="ER79">
+            <v>9.68</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
             <v>KNCR11</v>
           </cell>
-          <cell r="EK80">
-            <v>1</v>
-          </cell>
-          <cell r="EN80">
-            <v>10.719999999999999</v>
+          <cell r="EO80">
+            <v>1.07</v>
+          </cell>
+          <cell r="EP80">
+            <v>3.0200000000000005</v>
+          </cell>
+          <cell r="EQ80">
+            <v>5.9400000000000013</v>
+          </cell>
+          <cell r="ER80">
+            <v>10.84</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
             <v>MXRF11</v>
           </cell>
-          <cell r="EK81">
-            <v>0.1</v>
-          </cell>
-          <cell r="EN81">
-            <v>1.0699999999999998</v>
+          <cell r="EO81">
+            <v>0.09</v>
+          </cell>
+          <cell r="EP81">
+            <v>0.29000000000000004</v>
+          </cell>
+          <cell r="EQ81">
+            <v>0.55999999999999994</v>
+          </cell>
+          <cell r="ER81">
+            <v>1.0599999999999998</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
             <v>IRDM11</v>
           </cell>
-          <cell r="EK82">
-            <v>0.75</v>
-          </cell>
-          <cell r="EN82">
-            <v>8.3600000000000012</v>
+          <cell r="EO82">
+            <v>0.93</v>
+          </cell>
+          <cell r="EP82">
+            <v>2.4300000000000002</v>
+          </cell>
+          <cell r="EQ82">
+            <v>4.6700000000000008</v>
+          </cell>
+          <cell r="ER82">
+            <v>8.5400000000000009</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
             <v>KNHY11</v>
           </cell>
-          <cell r="EK83">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="EN83">
-            <v>11.950000000000001</v>
+          <cell r="EO83">
+            <v>1.2</v>
+          </cell>
+          <cell r="EP83">
+            <v>3.3499999999999996</v>
+          </cell>
+          <cell r="EQ83">
+            <v>6.38</v>
+          </cell>
+          <cell r="ER83">
+            <v>12.000000000000002</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
             <v>CPTS11</v>
           </cell>
-          <cell r="EK84">
+          <cell r="EO84">
             <v>7.4999999999999997E-2</v>
           </cell>
-          <cell r="EN84">
-            <v>0.83099999999999996</v>
+          <cell r="EP84">
+            <v>0.21199999999999999</v>
+          </cell>
+          <cell r="EQ84">
+            <v>0.44600000000000001</v>
+          </cell>
+          <cell r="ER84">
+            <v>0.83599999999999985</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
             <v>RECR11</v>
           </cell>
-          <cell r="EK85">
-            <v>0.96140000000000003</v>
-          </cell>
-          <cell r="EN85">
-            <v>9.8448000000000011</v>
+          <cell r="EO85">
+            <v>1.0270999999999999</v>
+          </cell>
+          <cell r="EP85">
+            <v>3.0243000000000002</v>
+          </cell>
+          <cell r="EQ85">
+            <v>5.5677000000000003</v>
+          </cell>
+          <cell r="ER85">
+            <v>10.217699999999999</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
             <v>HCTR11</v>
           </cell>
-          <cell r="EK86">
-            <v>0</v>
-          </cell>
-          <cell r="EN86">
-            <v>3.7879999999999994</v>
+          <cell r="EO86">
+            <v>0.32</v>
+          </cell>
+          <cell r="EP86">
+            <v>1.01</v>
+          </cell>
+          <cell r="EQ86">
+            <v>2.16</v>
+          </cell>
+          <cell r="ER86">
+            <v>4.0699999999999994</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
             <v>KNHF11</v>
           </cell>
-          <cell r="EK87">
+          <cell r="EO87">
             <v>0.9</v>
           </cell>
-          <cell r="EN87">
-            <v>9.8600000000000012</v>
+          <cell r="EP87">
+            <v>2.7</v>
+          </cell>
+          <cell r="EQ87">
+            <v>5.4</v>
+          </cell>
+          <cell r="ER87">
+            <v>9.9000000000000021</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
             <v>MCCI11</v>
           </cell>
-          <cell r="EK88">
+          <cell r="EO88">
             <v>0.8</v>
           </cell>
-          <cell r="EN88">
+          <cell r="EP88">
+            <v>2.4000000000000004</v>
+          </cell>
+          <cell r="EQ88">
+            <v>4.8</v>
+          </cell>
+          <cell r="ER88">
             <v>8.7999999999999989</v>
           </cell>
         </row>
@@ -2756,43 +3238,67 @@
           <cell r="B89" t="str">
             <v>HGCR11</v>
           </cell>
-          <cell r="EK89">
-            <v>0.95</v>
-          </cell>
-          <cell r="EN89">
-            <v>10.45</v>
+          <cell r="EO89">
+            <v>1.05</v>
+          </cell>
+          <cell r="EP89">
+            <v>2.95</v>
+          </cell>
+          <cell r="EQ89">
+            <v>5.8000000000000007</v>
+          </cell>
+          <cell r="ER89">
+            <v>10.549999999999999</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
             <v>KNUQ11</v>
           </cell>
-          <cell r="EK90">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="EN90">
-            <v>11.550000000000002</v>
+          <cell r="EO90">
+            <v>1.25</v>
+          </cell>
+          <cell r="EP90">
+            <v>3.35</v>
+          </cell>
+          <cell r="EQ90">
+            <v>6.48</v>
+          </cell>
+          <cell r="ER90">
+            <v>11.740000000000002</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
             <v>VGHF11</v>
           </cell>
-          <cell r="EK91">
+          <cell r="EO91">
             <v>0.09</v>
           </cell>
-          <cell r="EN91">
-            <v>0.97999999999999987</v>
+          <cell r="EP91">
+            <v>0.27</v>
+          </cell>
+          <cell r="EQ91">
+            <v>0.53</v>
+          </cell>
+          <cell r="ER91">
+            <v>0.96999999999999986</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
             <v>VRTA11</v>
           </cell>
-          <cell r="EK92">
+          <cell r="EO92">
             <v>0.85</v>
           </cell>
-          <cell r="EN92">
+          <cell r="EP92">
+            <v>2.5</v>
+          </cell>
+          <cell r="EQ92">
+            <v>4.8999999999999995</v>
+          </cell>
+          <cell r="ER92">
             <v>9.4</v>
           </cell>
         </row>
@@ -2800,120 +3306,186 @@
           <cell r="B93" t="str">
             <v>VGIR11</v>
           </cell>
-          <cell r="EK93">
-            <v>0.11</v>
-          </cell>
-          <cell r="EN93">
-            <v>1.1600000000000001</v>
+          <cell r="EO93">
+            <v>0.109584</v>
+          </cell>
+          <cell r="EP93">
+            <v>0.32958399999999999</v>
+          </cell>
+          <cell r="EQ93">
+            <v>0.62958399999999992</v>
+          </cell>
+          <cell r="ER93">
+            <v>1.1595839999999999</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
             <v>RBRR11</v>
           </cell>
-          <cell r="EK94">
-            <v>0.8</v>
-          </cell>
-          <cell r="EN94">
-            <v>9.2510000000000012</v>
+          <cell r="EO94">
+            <v>0.9</v>
+          </cell>
+          <cell r="EP94">
+            <v>2.52</v>
+          </cell>
+          <cell r="EQ94">
+            <v>4.97</v>
+          </cell>
+          <cell r="ER94">
+            <v>9.3309999999999995</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
             <v>VCJR11</v>
           </cell>
-          <cell r="EK95">
+          <cell r="EO95">
             <v>0.95</v>
           </cell>
-          <cell r="EN95">
-            <v>10.079999999999998</v>
+          <cell r="EP95">
+            <v>2.8</v>
+          </cell>
+          <cell r="EQ95">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="ER95">
+            <v>10.029999999999999</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
             <v>DEVA11</v>
           </cell>
-          <cell r="EK96">
-            <v>0.43</v>
-          </cell>
-          <cell r="EN96">
-            <v>5.7</v>
+          <cell r="EO96">
+            <v>0.41</v>
+          </cell>
+          <cell r="EP96">
+            <v>1.28</v>
+          </cell>
+          <cell r="EQ96">
+            <v>2.6300000000000003</v>
+          </cell>
+          <cell r="ER96">
+            <v>5.33</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
             <v>RBRY11</v>
           </cell>
-          <cell r="EK97">
-            <v>0.95</v>
-          </cell>
-          <cell r="EN97">
-            <v>10.660000000000002</v>
+          <cell r="EO97">
+            <v>0.97</v>
+          </cell>
+          <cell r="EP97">
+            <v>2.82</v>
+          </cell>
+          <cell r="EQ97">
+            <v>5.67</v>
+          </cell>
+          <cell r="ER97">
+            <v>10.58</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
             <v>URPR11</v>
           </cell>
-          <cell r="EK98">
-            <v>0.88</v>
-          </cell>
-          <cell r="EN98">
-            <v>10.91</v>
+          <cell r="EO98">
+            <v>0.81</v>
+          </cell>
+          <cell r="EP98">
+            <v>2.57</v>
+          </cell>
+          <cell r="EQ98">
+            <v>5.39</v>
+          </cell>
+          <cell r="ER98">
+            <v>10.59</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
             <v>KNSC11</v>
           </cell>
-          <cell r="EK99">
-            <v>0.09</v>
-          </cell>
-          <cell r="EN99">
-            <v>0.94999999999999973</v>
+          <cell r="EO99">
+            <v>0.1</v>
+          </cell>
+          <cell r="EP99">
+            <v>0.27</v>
+          </cell>
+          <cell r="EQ99">
+            <v>0.53</v>
+          </cell>
+          <cell r="ER99">
+            <v>0.96999999999999986</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
             <v>MCRE11</v>
           </cell>
-          <cell r="EK100">
+          <cell r="EO100">
             <v>0.1</v>
           </cell>
-          <cell r="EN100">
-            <v>1.1600000000000001</v>
+          <cell r="EP100">
+            <v>0.30000000000000004</v>
+          </cell>
+          <cell r="EQ100">
+            <v>0.6</v>
+          </cell>
+          <cell r="ER100">
+            <v>1.1500000000000001</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
             <v>VGIP11</v>
           </cell>
-          <cell r="EK101">
-            <v>0.82</v>
-          </cell>
-          <cell r="EN101">
-            <v>9.370000000000001</v>
+          <cell r="EO101">
+            <v>0.92</v>
+          </cell>
+          <cell r="EP101">
+            <v>2.46</v>
+          </cell>
+          <cell r="EQ101">
+            <v>5.0299999999999994</v>
+          </cell>
+          <cell r="ER101">
+            <v>9.49</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
             <v>CVBI11</v>
           </cell>
-          <cell r="EK102">
-            <v>0.9</v>
-          </cell>
-          <cell r="EN102">
-            <v>10.24</v>
+          <cell r="EO102">
+            <v>1.05</v>
+          </cell>
+          <cell r="EP102">
+            <v>3</v>
+          </cell>
+          <cell r="EQ102">
+            <v>5.54</v>
+          </cell>
+          <cell r="ER102">
+            <v>10.34</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
             <v>BTCI11</v>
           </cell>
-          <cell r="EK103">
-            <v>9.0999999999999998E-2</v>
-          </cell>
-          <cell r="EN103">
+          <cell r="EO103">
+            <v>9.1999999999999998E-2</v>
+          </cell>
+          <cell r="EP103">
+            <v>0.27500000000000002</v>
+          </cell>
+          <cell r="EQ103">
+            <v>0.54799999999999993</v>
+          </cell>
+          <cell r="ER103">
             <v>1.0129999999999999</v>
           </cell>
         </row>
@@ -2921,65 +3493,101 @@
           <cell r="B104" t="str">
             <v>XPCI11</v>
           </cell>
-          <cell r="EK104">
+          <cell r="EO104">
             <v>0.83</v>
           </cell>
-          <cell r="EN104">
-            <v>9.48</v>
+          <cell r="EP104">
+            <v>2.4699999999999998</v>
+          </cell>
+          <cell r="EQ104">
+            <v>4.8699999999999992</v>
+          </cell>
+          <cell r="ER104">
+            <v>9.41</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
             <v>RZAK11</v>
           </cell>
-          <cell r="EK105">
-            <v>1.1299999999999999</v>
-          </cell>
-          <cell r="EN105">
-            <v>11.59</v>
+          <cell r="EO105">
+            <v>1.7740530000000001</v>
+          </cell>
+          <cell r="EP105">
+            <v>3.9740530000000005</v>
+          </cell>
+          <cell r="EQ105">
+            <v>6.8940530000000004</v>
+          </cell>
+          <cell r="ER105">
+            <v>12.214053</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
             <v>HABT11</v>
           </cell>
-          <cell r="EK106">
-            <v>1.05</v>
-          </cell>
-          <cell r="EN106">
-            <v>11.25</v>
+          <cell r="EO106">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="EP106">
+            <v>3.1700000000000004</v>
+          </cell>
+          <cell r="EQ106">
+            <v>6.0200000000000005</v>
+          </cell>
+          <cell r="ER106">
+            <v>11.299999999999999</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
             <v>BCRI11</v>
           </cell>
-          <cell r="EK107">
-            <v>0.78</v>
-          </cell>
-          <cell r="EN107">
-            <v>8.5</v>
+          <cell r="EO107">
+            <v>0.84</v>
+          </cell>
+          <cell r="EP107">
+            <v>2.37</v>
+          </cell>
+          <cell r="EQ107">
+            <v>4.7799999999999994</v>
+          </cell>
+          <cell r="ER107">
+            <v>8.6199999999999992</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
             <v>CACR11</v>
           </cell>
-          <cell r="EK108">
-            <v>1.34</v>
-          </cell>
-          <cell r="EN108">
-            <v>14.890000000000002</v>
+          <cell r="EO108">
+            <v>1.3</v>
+          </cell>
+          <cell r="EP108">
+            <v>3.96</v>
+          </cell>
+          <cell r="EQ108">
+            <v>7.91</v>
+          </cell>
+          <cell r="ER108">
+            <v>14.840000000000003</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
             <v>AFHI11</v>
           </cell>
-          <cell r="EK109">
+          <cell r="EO109">
             <v>0.95</v>
           </cell>
-          <cell r="EN109">
+          <cell r="EP109">
+            <v>2.83</v>
+          </cell>
+          <cell r="EQ109">
+            <v>5.6400000000000006</v>
+          </cell>
+          <cell r="ER109">
             <v>10.399999999999999</v>
           </cell>
         </row>
@@ -2987,54 +3595,84 @@
           <cell r="B110" t="str">
             <v>BARI11</v>
           </cell>
-          <cell r="EK110">
+          <cell r="EO110">
             <v>0.95</v>
           </cell>
-          <cell r="EN110">
-            <v>8.8353999999999999</v>
+          <cell r="EP110">
+            <v>2.69</v>
+          </cell>
+          <cell r="EQ110">
+            <v>4.96</v>
+          </cell>
+          <cell r="ER110">
+            <v>8.8854000000000006</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
             <v>SNCI11</v>
           </cell>
-          <cell r="EK111">
+          <cell r="EO111">
             <v>1</v>
           </cell>
-          <cell r="EN111">
-            <v>10.55</v>
+          <cell r="EP111">
+            <v>3</v>
+          </cell>
+          <cell r="EQ111">
+            <v>6</v>
+          </cell>
+          <cell r="ER111">
+            <v>10.649999999999999</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112" t="str">
             <v>KCRE11</v>
           </cell>
-          <cell r="EK112">
-            <v>0.09</v>
-          </cell>
-          <cell r="EN112">
-            <v>1.026</v>
+          <cell r="EO112">
+            <v>0.11</v>
+          </cell>
+          <cell r="EP112">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="EQ112">
+            <v>0.53</v>
+          </cell>
+          <cell r="ER112">
+            <v>1.046</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113" t="str">
             <v>PORD11</v>
           </cell>
-          <cell r="EK113">
-            <v>8.8999999999999996E-2</v>
-          </cell>
-          <cell r="EN113">
-            <v>0.99799999999999978</v>
+          <cell r="EO113">
+            <v>8.2000000000000003E-2</v>
+          </cell>
+          <cell r="EP113">
+            <v>0.26</v>
+          </cell>
+          <cell r="EQ113">
+            <v>0.52899999999999991</v>
+          </cell>
+          <cell r="ER113">
+            <v>0.98699999999999977</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114" t="str">
             <v>MANA11</v>
           </cell>
-          <cell r="EK114">
-            <v>0.11</v>
-          </cell>
-          <cell r="EN114">
+          <cell r="EO114">
+            <v>0.1</v>
+          </cell>
+          <cell r="EP114">
+            <v>0.32</v>
+          </cell>
+          <cell r="EQ114">
+            <v>0.62</v>
+          </cell>
+          <cell r="ER114">
             <v>1.1500000000000001</v>
           </cell>
         </row>
@@ -3042,32 +3680,50 @@
           <cell r="B115" t="str">
             <v>VSLH11</v>
           </cell>
-          <cell r="EK115">
-            <v>0.04</v>
-          </cell>
-          <cell r="EN115">
-            <v>0.43999999999999995</v>
+          <cell r="EO115">
+            <v>0.03</v>
+          </cell>
+          <cell r="EP115">
+            <v>0.1</v>
+          </cell>
+          <cell r="EQ115">
+            <v>0.22000000000000003</v>
+          </cell>
+          <cell r="ER115">
+            <v>0.41999999999999993</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
             <v>OUJP11</v>
           </cell>
-          <cell r="EK116">
-            <v>1.24</v>
-          </cell>
-          <cell r="EN116">
-            <v>10.020000000000001</v>
+          <cell r="EO116">
+            <v>0.91</v>
+          </cell>
+          <cell r="EP116">
+            <v>3.05</v>
+          </cell>
+          <cell r="EQ116">
+            <v>5.6499999999999995</v>
+          </cell>
+          <cell r="ER116">
+            <v>10.02</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
             <v>WHGR11</v>
           </cell>
-          <cell r="EK117">
+          <cell r="EO117">
             <v>0.1</v>
           </cell>
-          <cell r="EN117">
+          <cell r="EP117">
+            <v>0.30000000000000004</v>
+          </cell>
+          <cell r="EQ117">
+            <v>0.6</v>
+          </cell>
+          <cell r="ER117">
             <v>1.095</v>
           </cell>
         </row>
@@ -3075,65 +3731,101 @@
           <cell r="B118" t="str">
             <v>RBRX11</v>
           </cell>
-          <cell r="EK118">
+          <cell r="EO118">
             <v>0.08</v>
           </cell>
-          <cell r="EN118">
-            <v>1.03</v>
+          <cell r="EP118">
+            <v>0.24</v>
+          </cell>
+          <cell r="EQ118">
+            <v>0.49</v>
+          </cell>
+          <cell r="ER118">
+            <v>1.02</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
             <v>HSAF11</v>
           </cell>
-          <cell r="EK119">
-            <v>1.2</v>
-          </cell>
-          <cell r="EN119">
-            <v>10.050000000000001</v>
+          <cell r="EO119">
+            <v>0.95</v>
+          </cell>
+          <cell r="EP119">
+            <v>2.95</v>
+          </cell>
+          <cell r="EQ119">
+            <v>5.35</v>
+          </cell>
+          <cell r="ER119">
+            <v>10.100000000000001</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120" t="str">
             <v>KIVO11</v>
           </cell>
-          <cell r="EK120">
-            <v>0.95</v>
-          </cell>
-          <cell r="EN120">
-            <v>10.670000000000002</v>
+          <cell r="EO120">
+            <v>0.9</v>
+          </cell>
+          <cell r="EP120">
+            <v>2.75</v>
+          </cell>
+          <cell r="EQ120">
+            <v>5.42</v>
+          </cell>
+          <cell r="ER120">
+            <v>10.520000000000001</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
             <v>SPXS11</v>
           </cell>
-          <cell r="EK121">
+          <cell r="EO121">
             <v>0.1</v>
           </cell>
-          <cell r="EN121">
-            <v>1.073</v>
+          <cell r="EP121">
+            <v>0.30000000000000004</v>
+          </cell>
+          <cell r="EQ121">
+            <v>0.60099999999999998</v>
+          </cell>
+          <cell r="ER121">
+            <v>1.0859999999999999</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122" t="str">
             <v>ARRI11</v>
           </cell>
-          <cell r="EK122">
+          <cell r="EO122">
             <v>0.09</v>
           </cell>
-          <cell r="EN122">
-            <v>1.0699999999999998</v>
+          <cell r="EP122">
+            <v>0.27</v>
+          </cell>
+          <cell r="EQ122">
+            <v>0.54999999999999993</v>
+          </cell>
+          <cell r="ER122">
+            <v>1.0599999999999998</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123" t="str">
             <v>CYCR11</v>
           </cell>
-          <cell r="EK123">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-          <cell r="EN123">
+          <cell r="EO123">
+            <v>0.1</v>
+          </cell>
+          <cell r="EP123">
+            <v>0.29000000000000004</v>
+          </cell>
+          <cell r="EQ123">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="ER123">
             <v>1.1300000000000001</v>
           </cell>
         </row>
@@ -3141,21 +3833,33 @@
           <cell r="B124" t="str">
             <v>CLIN11</v>
           </cell>
-          <cell r="EK124">
+          <cell r="EO124">
             <v>1</v>
           </cell>
-          <cell r="EN124">
-            <v>10.85</v>
+          <cell r="EP124">
+            <v>3</v>
+          </cell>
+          <cell r="EQ124">
+            <v>5.8800000000000008</v>
+          </cell>
+          <cell r="ER124">
+            <v>10.830000000000002</v>
           </cell>
         </row>
         <row r="125">
           <cell r="B125" t="str">
             <v>GAME11</v>
           </cell>
-          <cell r="EK125">
+          <cell r="EO125">
             <v>0.09</v>
           </cell>
-          <cell r="EN125">
+          <cell r="EP125">
+            <v>0.27</v>
+          </cell>
+          <cell r="EQ125">
+            <v>0.53999999999999992</v>
+          </cell>
+          <cell r="ER125">
             <v>0.98999999999999977</v>
           </cell>
         </row>
@@ -3174,6 +3878,8 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3498,9 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F01432D-B911-4929-834D-63512A57A1C4}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3513,9 +4217,8 @@
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3523,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3538,34 +4241,34 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>LEFT(A2,6)</f>
         <v>KNRI11</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <f>_xlfn.XLOOKUP(B2,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3585,30 +4288,32 @@
         <v>144264145.62</v>
       </c>
       <c r="I2">
-        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.XLOOKUP(B2,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>11</v>
-      </c>
-      <c r="K2">
-        <v>165.5</v>
-      </c>
-      <c r="L2">
-        <v>139.81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B66" si="0">LEFT(A3,6)</f>
         <v>TVRI11</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2">
         <f>_xlfn.XLOOKUP(B3,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3628,30 +4333,32 @@
         <v>29273093.380000003</v>
       </c>
       <c r="I3">
-        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.98</v>
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.03</v>
       </c>
       <c r="J3">
-        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.730000000000002</v>
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.9899999999999998</v>
       </c>
       <c r="K3">
-        <v>97.84</v>
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.93</v>
       </c>
       <c r="L3">
-        <v>84.1</v>
+        <f>_xlfn.XLOOKUP(B3,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.790000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ALZR11</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2">
         <f>_xlfn.XLOOKUP(B4,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3671,30 +4378,32 @@
         <v>43946969.469999984</v>
       </c>
       <c r="I4">
-        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.80549999999999999</v>
       </c>
       <c r="J4">
-        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.3589379999999984</v>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.3860000000000001</v>
       </c>
       <c r="K4">
-        <v>117.64</v>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.6212090000000003</v>
       </c>
       <c r="L4">
-        <v>110.76</v>
+        <f>_xlfn.XLOOKUP(B4,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.3668829999999996</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GARE11</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2">
         <f>_xlfn.XLOOKUP(B5,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3714,30 +4423,32 @@
         <v>126518616.86</v>
       </c>
       <c r="I5">
-        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>9.1999999999999998E-2</v>
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J5">
-        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.97399999999999975</v>
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.26700000000000002</v>
       </c>
       <c r="K5">
-        <v>9.34</v>
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.53599999999999992</v>
       </c>
       <c r="L5">
-        <v>9.2799999999999994</v>
+        <f>_xlfn.XLOOKUP(B5,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.97099999999999975</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RBRP11</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2">
         <f>_xlfn.XLOOKUP(B6,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3757,30 +4468,32 @@
         <v>31513791.960000001</v>
       </c>
       <c r="I6">
-        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.54</v>
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.41</v>
       </c>
       <c r="J6">
-        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.71</v>
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.49</v>
       </c>
       <c r="K6">
-        <v>54.8</v>
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.0900000000000003</v>
       </c>
       <c r="L6">
-        <v>48.51</v>
+        <f>_xlfn.XLOOKUP(B6,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.98</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SARE11</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2">
         <f>_xlfn.XLOOKUP(B7,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3800,30 +4513,32 @@
         <v>18634339.09</v>
       </c>
       <c r="I7">
-        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.02</v>
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>2.3E-2</v>
       </c>
       <c r="J7">
-        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.29599999999999999</v>
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>6.3E-2</v>
       </c>
       <c r="K7">
-        <v>4.9290000000000003</v>
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.12300000000000001</v>
       </c>
       <c r="L7">
-        <v>6.58</v>
+        <f>_xlfn.XLOOKUP(B7,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.28300000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ZAVI11</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2">
         <f>_xlfn.XLOOKUP(B8,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3843,30 +4558,32 @@
         <v>6565184.5600000015</v>
       </c>
       <c r="I8">
-        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1499999999999999</v>
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.05</v>
       </c>
       <c r="J8">
-        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>12.95</v>
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.35</v>
       </c>
       <c r="K8">
-        <v>125</v>
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.9</v>
       </c>
       <c r="L8">
-        <v>126</v>
+        <f>_xlfn.XLOOKUP(B8,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>12.66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HGRU11</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2">
         <f>_xlfn.XLOOKUP(B9,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3886,30 +4603,32 @@
         <v>166517451.91</v>
       </c>
       <c r="I9">
-        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.9</v>
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.9</v>
       </c>
       <c r="J9">
-        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.899999999999999</v>
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.6999999999999997</v>
       </c>
       <c r="K9">
-        <v>140</v>
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.2999999999999989</v>
       </c>
       <c r="L9">
-        <v>116.36</v>
+        <f>_xlfn.XLOOKUP(B9,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.949999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TRXF11</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2">
         <f>_xlfn.XLOOKUP(B10,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3929,30 +4648,32 @@
         <v>141342453.94</v>
       </c>
       <c r="I10">
-        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>2.5</v>
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.93</v>
       </c>
       <c r="J10">
-        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.8</v>
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>4.3600000000000003</v>
       </c>
       <c r="K10">
-        <v>111.75</v>
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>7.1499999999999995</v>
       </c>
       <c r="L10">
-        <v>104.73</v>
+        <f>_xlfn.XLOOKUP(B10,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>11.830000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RBVA11</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2">
         <f>_xlfn.XLOOKUP(B11,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -3972,30 +4693,32 @@
         <v>37478770.269999996</v>
       </c>
       <c r="I11">
-        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.9</v>
       </c>
       <c r="J11">
-        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.8</v>
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.7</v>
       </c>
       <c r="K11">
-        <v>113.56</v>
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.7</v>
       </c>
       <c r="L11">
-        <v>92.5</v>
+        <f>_xlfn.XLOOKUP(B11,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VIUR11</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2">
         <f>_xlfn.XLOOKUP(B12,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4015,30 +4738,32 @@
         <v>4703893.5100000007</v>
       </c>
       <c r="I12">
-        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="J12">
-        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K12">
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L12">
+        <f>_xlfn.XLOOKUP(B12,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>0.73699999999999988</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <v>7.38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HGLG11</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2">
         <f>_xlfn.XLOOKUP(B13,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4058,30 +4783,32 @@
         <v>193936854.31</v>
       </c>
       <c r="I13">
-        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J13">
-        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="K13">
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.6</v>
+      </c>
+      <c r="L13">
+        <f>_xlfn.XLOOKUP(B13,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>12.099999999999998</v>
-      </c>
-      <c r="K13">
-        <v>161.99</v>
-      </c>
-      <c r="L13">
-        <v>159.96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BTLG11</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2">
         <f>_xlfn.XLOOKUP(B14,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4101,30 +4828,32 @@
         <v>233325856.47</v>
       </c>
       <c r="I14">
-        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.86819100000000005</v>
       </c>
       <c r="J14">
-        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.4599999999999991</v>
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.428191</v>
       </c>
       <c r="K14">
-        <v>103.87</v>
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7481910000000003</v>
       </c>
       <c r="L14">
-        <v>98.2</v>
+        <f>_xlfn.XLOOKUP(B14,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.5481909999999992</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>XPLG11</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2">
         <f>_xlfn.XLOOKUP(B15,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4144,30 +4873,32 @@
         <v>111142596.14000002</v>
       </c>
       <c r="I15">
-        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.82</v>
       </c>
       <c r="J15">
-        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.5800000000000018</v>
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.38</v>
       </c>
       <c r="K15">
-        <v>108.9</v>
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7200000000000006</v>
       </c>
       <c r="L15">
-        <v>96.96</v>
+        <f>_xlfn.XLOOKUP(B15,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.620000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LVBI11</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2">
         <f>_xlfn.XLOOKUP(B16,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4187,30 +4918,32 @@
         <v>78093900.279999986</v>
       </c>
       <c r="I16">
-        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J16">
-        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.620000000000001</v>
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4899999999999998</v>
       </c>
       <c r="K16">
-        <v>117.87</v>
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.05</v>
       </c>
       <c r="L16">
-        <v>99.07</v>
+        <f>_xlfn.XLOOKUP(B16,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BRCO11</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2">
         <f>_xlfn.XLOOKUP(B17,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4230,30 +4963,32 @@
         <v>89282246.679999992</v>
       </c>
       <c r="I17">
-        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.87</v>
       </c>
       <c r="J17">
-        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.61</v>
+      </c>
+      <c r="K17">
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.22</v>
+      </c>
+      <c r="L17">
+        <f>_xlfn.XLOOKUP(B17,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>9.5699999999999985</v>
-      </c>
-      <c r="K17">
-        <v>123.39</v>
-      </c>
-      <c r="L17">
-        <v>99.95</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VILG11</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2">
         <f>_xlfn.XLOOKUP(B18,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4273,30 +5008,32 @@
         <v>54308162.409999996</v>
       </c>
       <c r="I18">
-        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.63</v>
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.65</v>
       </c>
       <c r="J18">
-        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>6.74</v>
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.9</v>
       </c>
       <c r="K18">
-        <v>99.27</v>
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>99.92</v>
+        <f>_xlfn.XLOOKUP(B18,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>6.83</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HSLG11</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2">
         <f>_xlfn.XLOOKUP(B19,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4316,30 +5053,32 @@
         <v>13517018.77</v>
       </c>
       <c r="I19">
-        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.74</v>
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.65</v>
       </c>
       <c r="J19">
-        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.14</v>
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.13</v>
       </c>
       <c r="K19">
-        <v>98.5</v>
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.3500000000000005</v>
       </c>
       <c r="L19">
-        <v>88</v>
+        <f>_xlfn.XLOOKUP(B19,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GGRC11</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2">
         <f>_xlfn.XLOOKUP(B20,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4359,30 +5098,32 @@
         <v>44083469.700000003</v>
       </c>
       <c r="I20">
-        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.1</v>
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J20">
-        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.0249999999999999</v>
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.29000000000000004</v>
       </c>
       <c r="K20">
-        <v>11.367000000000001</v>
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.58099999999999996</v>
       </c>
       <c r="L20">
-        <v>11.57</v>
+        <f>_xlfn.XLOOKUP(B20,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TRBL11</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2">
         <f>_xlfn.XLOOKUP(B21,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4402,30 +5143,32 @@
         <v>26339401.879999999</v>
       </c>
       <c r="I21">
-        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.62</v>
       </c>
       <c r="J21">
-        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.6599999999999984</v>
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K21">
-        <v>97.7</v>
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.18</v>
       </c>
       <c r="L21">
-        <v>95.19</v>
+        <f>_xlfn.XLOOKUP(B21,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.4299999999999979</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>XPIN11</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2">
         <f>_xlfn.XLOOKUP(B22,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4445,30 +5188,32 @@
         <v>8814667.3699999992</v>
       </c>
       <c r="I22">
-        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.74</v>
       </c>
       <c r="J22">
-        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>7.15</v>
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.2199999999999998</v>
       </c>
       <c r="K22">
-        <v>80.2</v>
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.32</v>
       </c>
       <c r="L22">
-        <v>72.290000000000006</v>
+        <f>_xlfn.XLOOKUP(B22,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>7.4200000000000008</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RBRL11</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2">
         <f>_xlfn.XLOOKUP(B23,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4488,30 +5233,32 @@
         <v>10424496.710000003</v>
       </c>
       <c r="I23">
-        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.77</v>
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.71</v>
       </c>
       <c r="J23">
-        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>7.5800000000000018</v>
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.25</v>
       </c>
       <c r="K23">
-        <v>87.41</v>
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.51</v>
       </c>
       <c r="L23">
-        <v>82.15</v>
+        <f>_xlfn.XLOOKUP(B23,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>7.7600000000000016</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BTAL11</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2">
         <f>_xlfn.XLOOKUP(B24,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4531,30 +5278,32 @@
         <v>13895191.699999997</v>
       </c>
       <c r="I24">
-        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.84</v>
       </c>
       <c r="J24">
-        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.67</v>
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.52</v>
       </c>
       <c r="K24">
-        <v>79.44</v>
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.04</v>
       </c>
       <c r="L24">
-        <v>94.86</v>
+        <f>_xlfn.XLOOKUP(B24,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.86</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PATL11</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2">
         <f>_xlfn.XLOOKUP(B25,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4574,30 +5323,32 @@
         <v>11325135.68</v>
       </c>
       <c r="I25">
-        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="J25">
-        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>6.3599999999999985</v>
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.71</v>
       </c>
       <c r="K25">
-        <v>69</v>
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.4199999999999995</v>
       </c>
       <c r="L25">
-        <v>69.33</v>
+        <f>_xlfn.XLOOKUP(B25,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>6.3299999999999992</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INLG11</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2">
         <f>_xlfn.XLOOKUP(B26,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4617,30 +5368,32 @@
         <v>8678565.4900000002</v>
       </c>
       <c r="I26">
-        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.8</v>
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.74</v>
       </c>
       <c r="J26">
-        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.27</v>
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.34</v>
       </c>
       <c r="K26">
-        <v>89.88</v>
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.68</v>
       </c>
       <c r="L26">
-        <v>81.209999999999994</v>
+        <f>_xlfn.XLOOKUP(B26,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RZAT11</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2">
         <f>_xlfn.XLOOKUP(B27,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4660,30 +5413,32 @@
         <v>20421836.009999998</v>
       </c>
       <c r="I27">
-        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J27">
-        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.650000000000002</v>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.98</v>
       </c>
       <c r="K27">
-        <v>92.52</v>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.0500000000000007</v>
       </c>
       <c r="L27">
-        <v>92.21</v>
+        <f>_xlfn.XLOOKUP(B27,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>11.530000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BLMG11</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="2">
         <f>_xlfn.XLOOKUP(B28,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4703,30 +5458,32 @@
         <v>10219303.309999999</v>
       </c>
       <c r="I28">
-        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.5</v>
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.35</v>
       </c>
       <c r="J28">
-        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>4.2200000000000006</v>
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.85</v>
       </c>
       <c r="K28">
-        <v>40.799999999999997</v>
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.35</v>
       </c>
       <c r="L28">
-        <v>74.59</v>
+        <f>_xlfn.XLOOKUP(B28,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>3.6900000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>XPML11</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2">
         <f>_xlfn.XLOOKUP(B29,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4746,30 +5503,32 @@
         <v>372407851.94</v>
       </c>
       <c r="I29">
-        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.92</v>
       </c>
       <c r="J29">
-        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.07</v>
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.7600000000000002</v>
       </c>
       <c r="K29">
-        <v>116.71</v>
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.5200000000000005</v>
       </c>
       <c r="L29">
-        <v>94.85</v>
+        <f>_xlfn.XLOOKUP(B29,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.090000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VISC11</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2">
         <f>_xlfn.XLOOKUP(B30,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4789,30 +5548,32 @@
         <v>137013339.5</v>
       </c>
       <c r="I30">
-        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J30">
-        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.73</v>
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K30">
-        <v>123.83</v>
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.83</v>
       </c>
       <c r="L30">
-        <v>106.5</v>
+        <f>_xlfn.XLOOKUP(B30,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HGBS11</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2">
         <f>_xlfn.XLOOKUP(B31,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4832,30 +5593,32 @@
         <v>72982452.009999976</v>
       </c>
       <c r="I31">
-        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1.6</v>
       </c>
       <c r="J31">
-        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>18.350000000000001</v>
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="K31">
-        <v>230.75</v>
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>9.6</v>
       </c>
       <c r="L31">
-        <v>188.2</v>
+        <f>_xlfn.XLOOKUP(B31,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>18.2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HSML11</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2">
         <f>_xlfn.XLOOKUP(B32,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4875,30 +5638,32 @@
         <v>121378352.35999998</v>
       </c>
       <c r="I32">
-        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.8</v>
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.65</v>
       </c>
       <c r="J32">
-        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.7999999999999989</v>
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.25</v>
       </c>
       <c r="K32">
-        <v>96.47</v>
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.6499999999999995</v>
       </c>
       <c r="L32">
-        <v>78.23</v>
+        <f>_xlfn.XLOOKUP(B32,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.6499999999999986</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GZIT11</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2">
         <f>_xlfn.XLOOKUP(B33,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4918,30 +5683,32 @@
         <v>10273003.439999998</v>
       </c>
       <c r="I33">
-        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0</v>
       </c>
       <c r="J33">
-        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.5800000000000018</v>
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.56</v>
       </c>
       <c r="K33">
-        <v>71.73</v>
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.9000000000000004</v>
       </c>
       <c r="L33">
-        <v>71.73</v>
+        <f>_xlfn.XLOOKUP(B33,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>7.8000000000000016</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MALL11</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2">
         <f>_xlfn.XLOOKUP(B34,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -4961,30 +5728,32 @@
         <v>55888851.890000001</v>
       </c>
       <c r="I34">
-        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.83</v>
       </c>
       <c r="J34">
-        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.1100000000000012</v>
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.3899999999999997</v>
       </c>
       <c r="K34">
-        <v>118.8</v>
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7300000000000004</v>
       </c>
       <c r="L34">
-        <v>102.8</v>
+        <f>_xlfn.XLOOKUP(B34,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.02</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BPML11</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2">
         <f>_xlfn.XLOOKUP(B35,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5004,30 +5773,32 @@
         <v>24870480.589999996</v>
       </c>
       <c r="I35">
-        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1.07</v>
       </c>
       <c r="J35">
-        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.6</v>
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.21</v>
       </c>
       <c r="K35">
-        <v>96</v>
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.4200000000000008</v>
       </c>
       <c r="L35">
-        <v>60.5</v>
+        <f>_xlfn.XLOOKUP(B35,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>11.65</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AJFI11</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2">
         <f>_xlfn.XLOOKUP(B36,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5047,30 +5818,32 @@
         <v>17041390.829999998</v>
       </c>
       <c r="I36">
-        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J36">
-        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.76988000000000001</v>
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.21000000000000002</v>
       </c>
       <c r="K36">
-        <v>9.68</v>
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.41827000000000003</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B36,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.74788000000000021</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CPSH11</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2">
         <f>_xlfn.XLOOKUP(B37,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5090,30 +5863,32 @@
         <v>65516771.550000004</v>
       </c>
       <c r="I37">
-        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.11</v>
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.1</v>
       </c>
       <c r="J37">
-        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.32</v>
+      </c>
+      <c r="K37">
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.62</v>
+      </c>
+      <c r="L37">
+        <f>_xlfn.XLOOKUP(B37,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>1.105</v>
-      </c>
-      <c r="K37">
-        <v>11.038</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PVBI11</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2">
         <f>_xlfn.XLOOKUP(B38,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5133,30 +5908,32 @@
         <v>122222123.75999999</v>
       </c>
       <c r="I38">
-        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="J38">
-        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>6.7500000000000018</v>
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="K38">
-        <v>103.21</v>
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>90</v>
+        <f>_xlfn.XLOOKUP(B38,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>6.6500000000000012</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BRCR11</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2">
         <f>_xlfn.XLOOKUP(B39,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5176,30 +5953,32 @@
         <v>36553648.68</v>
       </c>
       <c r="I39">
-        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.5</v>
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.48</v>
       </c>
       <c r="J39">
-        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.32</v>
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.48</v>
       </c>
       <c r="K39">
-        <v>59.3</v>
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.98</v>
       </c>
       <c r="L39">
-        <v>59</v>
+        <f>_xlfn.XLOOKUP(B39,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.48</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>JSRE11</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2">
         <f>_xlfn.XLOOKUP(B40,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5219,30 +5998,32 @@
         <v>43645504</v>
       </c>
       <c r="I40">
-        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.48</v>
       </c>
       <c r="J40">
-        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.2600000000000007</v>
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.44</v>
       </c>
       <c r="K40">
-        <v>75.06</v>
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.88</v>
       </c>
       <c r="L40">
-        <v>70.52</v>
+        <f>_xlfn.XLOOKUP(B40,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.2800000000000011</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HGRE11</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2">
         <f>_xlfn.XLOOKUP(B41,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5262,30 +6043,32 @@
         <v>36094045.620000005</v>
       </c>
       <c r="I41">
-        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.85</v>
       </c>
       <c r="J41">
-        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.3000000000000007</v>
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.41</v>
       </c>
       <c r="K41">
-        <v>133.13</v>
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7500000000000009</v>
       </c>
       <c r="L41">
-        <v>123.61</v>
+        <f>_xlfn.XLOOKUP(B41,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.370000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BROF11</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2">
         <f>_xlfn.XLOOKUP(B42,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5305,30 +6088,32 @@
         <v>9462745.3899999987</v>
       </c>
       <c r="I42">
-        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.5</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J42">
-        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.3846880000000006</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.5299999999999998</v>
       </c>
       <c r="K42">
-        <v>61.47</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.82</v>
       </c>
       <c r="L42">
-        <v>60</v>
+        <f>_xlfn.XLOOKUP(B42,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.4146879999999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GTWR11</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2">
         <f>_xlfn.XLOOKUP(B43,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5348,30 +6133,32 @@
         <v>23457469.460000005</v>
       </c>
       <c r="I43">
-        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J43">
-        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.73</v>
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K43">
-        <v>87.09</v>
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.82</v>
       </c>
       <c r="L43">
-        <v>77.39</v>
+        <f>_xlfn.XLOOKUP(B43,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.77</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>KORE11</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2">
         <f>_xlfn.XLOOKUP(B44,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5391,30 +6178,32 @@
         <v>63283042.920000009</v>
       </c>
       <c r="I44">
-        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1.25</v>
       </c>
       <c r="J44">
-        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.75</v>
+      </c>
+      <c r="K44">
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>7.5</v>
+      </c>
+      <c r="L44">
+        <f>_xlfn.XLOOKUP(B44,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>13.75</v>
-      </c>
-      <c r="K44">
-        <v>108</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>VINO11</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2">
         <f>_xlfn.XLOOKUP(B45,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5434,30 +6223,32 @@
         <v>16035258.359999999</v>
       </c>
       <c r="I45">
-        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.05</v>
       </c>
       <c r="J45">
-        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.60200000000000009</v>
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K45">
-        <v>7.64</v>
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.3</v>
       </c>
       <c r="L45">
-        <v>9.34</v>
+        <f>_xlfn.XLOOKUP(B45,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.59700000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RECT11</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2">
         <f>_xlfn.XLOOKUP(B46,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5477,30 +6268,32 @@
         <v>6592420.8600000003</v>
       </c>
       <c r="I46">
-        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.36</v>
       </c>
       <c r="J46">
-        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>4.0734000000000004</v>
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.08</v>
       </c>
       <c r="K46">
-        <v>47.54</v>
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.1599999999999997</v>
       </c>
       <c r="L46">
-        <v>54.42</v>
+        <f>_xlfn.XLOOKUP(B46,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>3.9933999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RCRB11</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" s="2">
         <f>_xlfn.XLOOKUP(B47,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5520,30 +6313,32 @@
         <v>15308858.219999999</v>
       </c>
       <c r="I47">
-        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1100000000000001</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.85</v>
       </c>
       <c r="J47">
-        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.62</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.81</v>
       </c>
       <c r="K47">
-        <v>161</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.7700000000000005</v>
       </c>
       <c r="L47">
-        <v>126.46</v>
+        <f>_xlfn.XLOOKUP(B47,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.46</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HGPO11</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2">
         <f>_xlfn.XLOOKUP(B48,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5563,30 +6358,32 @@
         <v>13367539.719999999</v>
       </c>
       <c r="I48">
-        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>146.69999999999996</v>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>132.15</v>
       </c>
       <c r="K48">
-        <v>282.99</v>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>137.29999999999998</v>
       </c>
       <c r="L48">
-        <v>256.8</v>
+        <f>_xlfn.XLOOKUP(B48,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>145.19999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TEPP11</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2">
         <f>_xlfn.XLOOKUP(B49,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5606,30 +6403,32 @@
         <v>14955020.459999999</v>
       </c>
       <c r="I49">
-        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.8</v>
       </c>
       <c r="J49">
-        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.73</v>
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K49">
-        <v>92.3</v>
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7000000000000011</v>
       </c>
       <c r="L49">
-        <v>68.989999999999995</v>
+        <f>_xlfn.XLOOKUP(B49,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.89</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AIEC11</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2">
         <f>_xlfn.XLOOKUP(B50,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5649,30 +6448,32 @@
         <v>11660549.949999999</v>
       </c>
       <c r="I50">
-        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.22</v>
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.17</v>
       </c>
       <c r="J50">
-        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.240000000000002</v>
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.0099999999999998</v>
       </c>
       <c r="K50">
-        <v>57.5</v>
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.09</v>
       </c>
       <c r="L50">
-        <v>67.19</v>
+        <f>_xlfn.XLOOKUP(B50,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>7.7000000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FATN11</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2">
         <f>_xlfn.XLOOKUP(B51,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5692,30 +6493,32 @@
         <v>15729285.549999997</v>
       </c>
       <c r="I51">
-        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.85</v>
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.8</v>
       </c>
       <c r="J51">
-        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.3499999999999979</v>
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.5</v>
       </c>
       <c r="K51">
-        <v>92</v>
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.05</v>
       </c>
       <c r="L51">
-        <v>93.9</v>
+        <f>_xlfn.XLOOKUP(B51,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.2999999999999989</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RZTR11</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" s="2">
         <f>_xlfn.XLOOKUP(B52,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5735,30 +6538,32 @@
         <v>109873347.93000001</v>
       </c>
       <c r="I52">
-        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1000000000000001</v>
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.05</v>
       </c>
       <c r="J52">
-        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.3</v>
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.3000000000000003</v>
       </c>
       <c r="K52">
-        <v>108.4</v>
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.0000000000000009</v>
       </c>
       <c r="L52">
-        <v>93.9</v>
+        <f>_xlfn.XLOOKUP(B52,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.500000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BTRA11</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2">
         <f>_xlfn.XLOOKUP(B53,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5778,30 +6583,32 @@
         <v>14079065.840000002</v>
       </c>
       <c r="I53">
-        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.3</v>
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0</v>
       </c>
       <c r="J53">
-        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>3.2999999999999994</v>
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.6</v>
       </c>
       <c r="K53">
-        <v>61.18</v>
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>1.5</v>
       </c>
       <c r="L53">
-        <v>86.38</v>
+        <f>_xlfn.XLOOKUP(B53,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SNEL11</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2">
         <f>_xlfn.XLOOKUP(B54,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5821,30 +6628,32 @@
         <v>12024848.92</v>
       </c>
       <c r="I54">
-        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J54">
-        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.1166499999999999</v>
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K54">
-        <v>8.2793333333333337</v>
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.6</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B54,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.1133199999999999</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HTMX11</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2">
         <f>_xlfn.XLOOKUP(B55,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5864,30 +6673,32 @@
         <v>29708919.929999996</v>
       </c>
       <c r="I55">
-        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>3.9372500000000001</v>
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.2302</v>
       </c>
       <c r="J55">
-        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>26.136378000000004</v>
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>8.5829880000000003</v>
       </c>
       <c r="K55">
-        <v>198</v>
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>15.231482</v>
       </c>
       <c r="L55">
-        <v>111.55</v>
+        <f>_xlfn.XLOOKUP(B55,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>24.766578000000003</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TGAR11</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2">
         <f>_xlfn.XLOOKUP(B56,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5907,30 +6718,32 @@
         <v>181259044.81</v>
       </c>
       <c r="I56">
-        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1000000000000001</v>
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1</v>
       </c>
       <c r="J56">
-        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>13.56</v>
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.25</v>
       </c>
       <c r="K56">
-        <v>122</v>
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.66</v>
       </c>
       <c r="L56">
-        <v>124.2</v>
+        <f>_xlfn.XLOOKUP(B56,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>13.23</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MFII11</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2">
         <f>_xlfn.XLOOKUP(B57,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5950,30 +6763,32 @@
         <v>24365139.170000002</v>
       </c>
       <c r="I57">
-        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.18</v>
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J57">
-        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>13.099999999999998</v>
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.4699999999999998</v>
       </c>
       <c r="K57">
-        <v>94.36</v>
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>7.01</v>
       </c>
       <c r="L57">
-        <v>91.92</v>
+        <f>_xlfn.XLOOKUP(B57,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>13.009999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BTHF11</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2">
         <f>_xlfn.XLOOKUP(B58,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -5993,30 +6808,32 @@
         <v>113831650.97999999</v>
       </c>
       <c r="I58">
-        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="J58">
-        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.82850000000000001</v>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.29134700000000002</v>
       </c>
       <c r="K58">
-        <v>9.3699999999999992</v>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.52334700000000001</v>
       </c>
       <c r="L58">
-        <v>8.3612500000000001</v>
+        <f>_xlfn.XLOOKUP(B58,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.88034700000000021</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>HFOF11</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="2">
         <f>_xlfn.XLOOKUP(B59,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6036,30 +6853,32 @@
         <v>55690859.650000006</v>
       </c>
       <c r="I59">
-        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="J59">
-        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>6.71</v>
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.6800000000000002</v>
       </c>
       <c r="K59">
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.49</v>
       </c>
       <c r="L59">
-        <v>72.930000000000007</v>
+        <f>_xlfn.XLOOKUP(B59,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>6.64</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RBRF11</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2">
         <f>_xlfn.XLOOKUP(B60,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6079,30 +6898,32 @@
         <v>63015942.769999996</v>
       </c>
       <c r="I60">
-        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.1</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.111</v>
       </c>
       <c r="J60">
-        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.69820000000000015</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.30100000000000005</v>
       </c>
       <c r="K60">
-        <v>8.1549999999999994</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.46600000000000003</v>
       </c>
       <c r="L60">
-        <v>6.9750000000000005</v>
+        <f>_xlfn.XLOOKUP(B60,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.7542000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>JSAF11</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="2">
         <f>_xlfn.XLOOKUP(B61,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6122,30 +6943,32 @@
         <v>36098845.580000006</v>
       </c>
       <c r="I61">
-        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="J61">
-        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.0549999999999999</v>
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K61">
-        <v>101.33</v>
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.54599999999999993</v>
       </c>
       <c r="L61">
-        <v>83.09</v>
+        <f>_xlfn.XLOOKUP(B61,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.0459999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>KFOF11</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2">
         <f>_xlfn.XLOOKUP(B62,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6165,30 +6988,32 @@
         <v>47544033.999999993</v>
       </c>
       <c r="I62">
-        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.75</v>
       </c>
       <c r="J62">
-        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.4499999999999993</v>
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.25</v>
       </c>
       <c r="K62">
-        <v>97.87</v>
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.5</v>
       </c>
       <c r="L62">
-        <v>74.260000000000005</v>
+        <f>_xlfn.XLOOKUP(B62,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.4</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BCIA11</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2">
         <f>_xlfn.XLOOKUP(B63,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6208,30 +7033,32 @@
         <v>9047461.7699999996</v>
       </c>
       <c r="I63">
-        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.95</v>
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.84</v>
       </c>
       <c r="J63">
-        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.59</v>
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.63</v>
       </c>
       <c r="K63">
-        <v>103.96</v>
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.21</v>
       </c>
       <c r="L63">
-        <v>82.61</v>
+        <f>_xlfn.XLOOKUP(B63,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.5599999999999987</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>KISU11</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2">
         <f>_xlfn.XLOOKUP(B64,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6251,30 +7078,32 @@
         <v>17904272.699999996</v>
       </c>
       <c r="I64">
-        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>6.7000000000000004E-2</v>
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J64">
-        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.78299999999999992</v>
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.20400000000000001</v>
       </c>
       <c r="K64">
-        <v>8.66</v>
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.40800000000000003</v>
       </c>
       <c r="L64">
-        <v>7.89</v>
+        <f>_xlfn.XLOOKUP(B64,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.77799999999999991</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>XPSF11</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="2">
         <f>_xlfn.XLOOKUP(B65,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6294,30 +7123,32 @@
         <v>13366268.75</v>
       </c>
       <c r="I65">
-        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>7.5999999999999998E-2</v>
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.06</v>
       </c>
       <c r="J65">
-        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.79599999999999993</v>
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.20600000000000002</v>
       </c>
       <c r="K65">
-        <v>8.32</v>
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.41600000000000004</v>
       </c>
       <c r="L65">
-        <v>7.21</v>
+        <f>_xlfn.XLOOKUP(B65,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.78099999999999992</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BPFF11</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2">
         <f>_xlfn.XLOOKUP(B66,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6337,30 +7168,32 @@
         <v>7714016.2599999998</v>
       </c>
       <c r="I66">
-        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.6</v>
       </c>
       <c r="J66">
-        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>6.7600000000000007</v>
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="K66">
-        <v>71.3</v>
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.64</v>
       </c>
       <c r="L66">
-        <v>64.599999999999994</v>
+        <f>_xlfn.XLOOKUP(B66,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>6.74</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="str">
         <f t="shared" ref="B67:B118" si="1">LEFT(A67,6)</f>
         <v>HGFF11</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="2">
         <f>_xlfn.XLOOKUP(B67,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6380,30 +7213,32 @@
         <v>10214958.84</v>
       </c>
       <c r="I67">
-        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.35</v>
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.68</v>
       </c>
       <c r="J67">
-        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.3500000000000014</v>
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.7300000000000004</v>
       </c>
       <c r="K67">
-        <v>87.95</v>
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.830000000000001</v>
       </c>
       <c r="L67">
-        <v>69.16</v>
+        <f>_xlfn.XLOOKUP(B67,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.3300000000000018</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SNFF11</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2">
         <f>_xlfn.XLOOKUP(B68,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6423,30 +7258,32 @@
         <v>7408090.709999999</v>
       </c>
       <c r="I68">
-        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.72</v>
       </c>
       <c r="J68">
-        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.67</v>
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.16</v>
       </c>
       <c r="K68">
-        <v>87.11</v>
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.88</v>
       </c>
       <c r="L68">
-        <v>88</v>
+        <f>_xlfn.XLOOKUP(B68,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.7000000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RBFF11</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" s="2">
         <f>_xlfn.XLOOKUP(B69,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6466,30 +7303,32 @@
         <v>17491391.050000004</v>
       </c>
       <c r="I69">
-        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.52</v>
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.51</v>
       </c>
       <c r="J69">
-        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.5999999999999988</v>
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.54</v>
       </c>
       <c r="K69">
-        <v>61</v>
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.0699999999999994</v>
       </c>
       <c r="L69">
-        <v>50.61</v>
+        <f>_xlfn.XLOOKUP(B69,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.6099999999999985</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RVBI11</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2">
         <f>_xlfn.XLOOKUP(B70,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6509,30 +7348,32 @@
         <v>35025355.119999997</v>
       </c>
       <c r="I70">
-        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.75</v>
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.7</v>
       </c>
       <c r="J70">
-        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.25</v>
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K70">
-        <v>83</v>
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.45</v>
       </c>
       <c r="L70">
-        <v>71.5</v>
+        <f>_xlfn.XLOOKUP(B70,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BBFO11</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D71" s="2">
         <f>_xlfn.XLOOKUP(B71,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6552,30 +7393,32 @@
         <v>8376889.3500000006</v>
       </c>
       <c r="I71">
-        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.65</v>
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.72</v>
       </c>
       <c r="J71">
-        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>7.1</v>
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.9900000000000002</v>
       </c>
       <c r="K71">
-        <v>72.91</v>
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>3.89</v>
       </c>
       <c r="L71">
-        <v>66.58</v>
+        <f>_xlfn.XLOOKUP(B71,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>7.1800000000000006</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNIP11</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" s="2">
         <f>_xlfn.XLOOKUP(B72,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6595,30 +7438,32 @@
         <v>266680290.25</v>
       </c>
       <c r="I72">
-        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1</v>
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.95</v>
       </c>
       <c r="J72">
-        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.6799999999999979</v>
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.85</v>
       </c>
       <c r="K72">
-        <v>95.57</v>
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.0599999999999996</v>
       </c>
       <c r="L72">
-        <v>89.55</v>
+        <f>_xlfn.XLOOKUP(B72,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.68</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNCR11</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D73" s="2">
         <f>_xlfn.XLOOKUP(B73,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6638,30 +7483,32 @@
         <v>434020491.94</v>
       </c>
       <c r="I73">
-        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1</v>
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.07</v>
       </c>
       <c r="J73">
-        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.719999999999999</v>
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.0200000000000005</v>
       </c>
       <c r="K73">
-        <v>104.35</v>
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.9400000000000013</v>
       </c>
       <c r="L73">
-        <v>97.5</v>
+        <f>_xlfn.XLOOKUP(B73,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.84</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MXRF11</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D74" s="2">
         <f>_xlfn.XLOOKUP(B74,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6681,30 +7528,32 @@
         <v>388280548.97999996</v>
       </c>
       <c r="I74">
-        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.1</v>
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.09</v>
       </c>
       <c r="J74">
-        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.0699999999999998</v>
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.29000000000000004</v>
       </c>
       <c r="K74">
-        <v>10.57</v>
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <f>_xlfn.XLOOKUP(B74,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.0599999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>IRDM11</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D75" s="2">
         <f>_xlfn.XLOOKUP(B75,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6724,30 +7573,32 @@
         <v>79183957.000000015</v>
       </c>
       <c r="I75">
-        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.75</v>
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.93</v>
       </c>
       <c r="J75">
-        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.3600000000000012</v>
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K75">
-        <v>82</v>
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.6700000000000008</v>
       </c>
       <c r="L75">
-        <v>92.04</v>
+        <f>_xlfn.XLOOKUP(B75,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.5400000000000009</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNHY11</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" s="2">
         <f>_xlfn.XLOOKUP(B76,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6767,30 +7618,32 @@
         <v>129369539.58000001</v>
       </c>
       <c r="I76">
-        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1000000000000001</v>
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.2</v>
       </c>
       <c r="J76">
-        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.950000000000001</v>
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.3499999999999996</v>
       </c>
       <c r="K76">
-        <v>103.3</v>
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.38</v>
       </c>
       <c r="L76">
-        <v>96.11</v>
+        <f>_xlfn.XLOOKUP(B76,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>12.000000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CPTS11</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D77" s="2">
         <f>_xlfn.XLOOKUP(B77,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6810,30 +7663,32 @@
         <v>187004686.37999997</v>
       </c>
       <c r="I77">
-        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J77">
-        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.83099999999999996</v>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.21199999999999999</v>
       </c>
       <c r="K77">
-        <v>8.49</v>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.44600000000000001</v>
       </c>
       <c r="L77">
-        <v>8.229000000000001</v>
+        <f>_xlfn.XLOOKUP(B77,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.83599999999999985</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RECR11</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D78" s="2">
         <f>_xlfn.XLOOKUP(B78,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6853,30 +7708,32 @@
         <v>66314562.710000008</v>
       </c>
       <c r="I78">
-        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.96140000000000003</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.0270999999999999</v>
       </c>
       <c r="J78">
-        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.8448000000000011</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.0243000000000002</v>
       </c>
       <c r="K78">
-        <v>87.9</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.5677000000000003</v>
       </c>
       <c r="L78">
-        <v>89.4</v>
+        <f>_xlfn.XLOOKUP(B78,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.217699999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>HCTR11</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D79" s="2">
         <f>_xlfn.XLOOKUP(B79,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6896,30 +7753,32 @@
         <v>36338676.219999991</v>
       </c>
       <c r="I79">
-        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.32</v>
       </c>
       <c r="J79">
-        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>3.7879999999999994</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.01</v>
       </c>
       <c r="K79">
-        <v>39.46</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.16</v>
       </c>
       <c r="L79">
-        <v>100.8</v>
+        <f>_xlfn.XLOOKUP(B79,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>4.0699999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNHF11</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D80" s="2">
         <f>_xlfn.XLOOKUP(B80,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6939,30 +7798,32 @@
         <v>110742991.23</v>
       </c>
       <c r="I80">
-        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.9</v>
       </c>
       <c r="J80">
-        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.8600000000000012</v>
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.7</v>
       </c>
       <c r="K80">
-        <v>106.48</v>
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.4</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B80,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.9000000000000021</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MCCI11</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="2">
         <f>_xlfn.XLOOKUP(B81,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -6982,30 +7843,32 @@
         <v>57426237.419999994</v>
       </c>
       <c r="I81">
-        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.8</v>
       </c>
       <c r="J81">
-        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K81">
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.8</v>
+      </c>
+      <c r="L81">
+        <f>_xlfn.XLOOKUP(B81,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>8.7999999999999989</v>
-      </c>
-      <c r="K81">
-        <v>94.57</v>
-      </c>
-      <c r="L81">
-        <v>90.31</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>HGCR11</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D82" s="2">
         <f>_xlfn.XLOOKUP(B82,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7025,30 +7888,32 @@
         <v>88247295.769999981</v>
       </c>
       <c r="I82">
-        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.95</v>
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.05</v>
       </c>
       <c r="J82">
-        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.45</v>
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.95</v>
       </c>
       <c r="K82">
-        <v>105.12</v>
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.8000000000000007</v>
       </c>
       <c r="L82">
-        <v>100.27</v>
+        <f>_xlfn.XLOOKUP(B82,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.549999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNUQ11</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D83" s="2">
         <f>_xlfn.XLOOKUP(B83,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7068,30 +7933,32 @@
         <v>121237248.91</v>
       </c>
       <c r="I83">
-        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1000000000000001</v>
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.25</v>
       </c>
       <c r="J83">
-        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.550000000000002</v>
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.35</v>
       </c>
       <c r="K83">
-        <v>102.8</v>
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.48</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <f>_xlfn.XLOOKUP(B83,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>11.740000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VGHF11</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D84" s="2">
         <f>_xlfn.XLOOKUP(B84,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7111,30 +7978,32 @@
         <v>92005457.449999988</v>
       </c>
       <c r="I84">
-        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J84">
-        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.97999999999999987</v>
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27</v>
       </c>
       <c r="K84">
-        <v>9.56</v>
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.53</v>
       </c>
       <c r="L84">
-        <v>9.07</v>
+        <f>_xlfn.XLOOKUP(B84,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.96999999999999986</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VRTA11</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D85" s="2">
         <f>_xlfn.XLOOKUP(B85,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7154,30 +8023,32 @@
         <v>43145300.890000008</v>
       </c>
       <c r="I85">
-        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.85</v>
       </c>
       <c r="J85">
-        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K85">
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="L85">
+        <f>_xlfn.XLOOKUP(B85,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>9.4</v>
-      </c>
-      <c r="K85">
-        <v>89</v>
-      </c>
-      <c r="L85">
-        <v>89.46</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VGIR11</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D86" s="2">
         <f>_xlfn.XLOOKUP(B86,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7197,30 +8068,32 @@
         <v>135530598.07999998</v>
       </c>
       <c r="I86">
-        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.11</v>
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.109584</v>
       </c>
       <c r="J86">
-        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.1600000000000001</v>
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.32958399999999999</v>
       </c>
       <c r="K86">
-        <v>9.84</v>
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.62958399999999992</v>
       </c>
       <c r="L86">
-        <v>9.8699999999999992</v>
+        <f>_xlfn.XLOOKUP(B86,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.1595839999999999</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RBRR11</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D87" s="2">
         <f>_xlfn.XLOOKUP(B87,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7240,30 +8113,32 @@
         <v>80667952.520000011</v>
       </c>
       <c r="I87">
-        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.8</v>
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.9</v>
       </c>
       <c r="J87">
-        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.2510000000000012</v>
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.52</v>
       </c>
       <c r="K87">
-        <v>89.14</v>
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.97</v>
       </c>
       <c r="L87">
-        <v>86.8</v>
+        <f>_xlfn.XLOOKUP(B87,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.3309999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VCJR11</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D88" s="2">
         <f>_xlfn.XLOOKUP(B88,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7283,30 +8158,32 @@
         <v>66314301.059999995</v>
       </c>
       <c r="I88">
-        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J88">
-        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.079999999999998</v>
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.8</v>
       </c>
       <c r="K88">
-        <v>94.31</v>
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L88">
-        <v>88.61</v>
+        <f>_xlfn.XLOOKUP(B88,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.029999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>DEVA11</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="2">
         <f>_xlfn.XLOOKUP(B89,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7326,30 +8203,32 @@
         <v>20254027.91</v>
       </c>
       <c r="I89">
-        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.43</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.41</v>
       </c>
       <c r="J89">
-        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>5.7</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>1.28</v>
       </c>
       <c r="K89">
-        <v>43.2</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>2.6300000000000003</v>
       </c>
       <c r="L89">
-        <v>89</v>
+        <f>_xlfn.XLOOKUP(B89,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>5.33</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RBRY11</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2">
         <f>_xlfn.XLOOKUP(B90,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7369,30 +8248,32 @@
         <v>69241938.239999995</v>
       </c>
       <c r="I90">
-        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.95</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.97</v>
       </c>
       <c r="J90">
-        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.660000000000002</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.82</v>
       </c>
       <c r="K90">
-        <v>99.75</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.67</v>
       </c>
       <c r="L90">
-        <v>96.51</v>
+        <f>_xlfn.XLOOKUP(B90,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.58</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>URPR11</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D91" s="2">
         <f>_xlfn.XLOOKUP(B91,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7412,30 +8293,32 @@
         <v>41708882.420000002</v>
       </c>
       <c r="I91">
-        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.88</v>
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.81</v>
       </c>
       <c r="J91">
-        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.91</v>
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.57</v>
       </c>
       <c r="K91">
-        <v>87.6</v>
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.39</v>
       </c>
       <c r="L91">
-        <v>101.71</v>
+        <f>_xlfn.XLOOKUP(B91,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.59</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KNSC11</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D92" s="2">
         <f>_xlfn.XLOOKUP(B92,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7455,30 +8338,32 @@
         <v>169678506.62</v>
       </c>
       <c r="I92">
-        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.09</v>
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.1</v>
       </c>
       <c r="J92">
-        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.94999999999999973</v>
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27</v>
       </c>
       <c r="K92">
-        <v>9.1300000000000008</v>
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.53</v>
       </c>
       <c r="L92">
-        <v>8.5620000000000012</v>
+        <f>_xlfn.XLOOKUP(B92,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.96999999999999986</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MCRE11</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D93" s="2">
         <f>_xlfn.XLOOKUP(B93,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7498,30 +8383,32 @@
         <v>110813972.39</v>
       </c>
       <c r="I93">
-        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J93">
-        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.1600000000000001</v>
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K93">
-        <v>11.18</v>
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.6</v>
       </c>
       <c r="L93">
-        <v>10.995000000000001</v>
+        <f>_xlfn.XLOOKUP(B93,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.1500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VGIP11</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D94" s="2">
         <f>_xlfn.XLOOKUP(B94,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7541,30 +8428,32 @@
         <v>54809711.670000002</v>
       </c>
       <c r="I94">
-        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.82</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.92</v>
       </c>
       <c r="J94">
-        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.370000000000001</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.46</v>
       </c>
       <c r="K94">
-        <v>88.16</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.0299999999999994</v>
       </c>
       <c r="L94">
-        <v>86.19</v>
+        <f>_xlfn.XLOOKUP(B94,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.49</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CVBI11</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D95" s="2">
         <f>_xlfn.XLOOKUP(B95,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7584,30 +8473,32 @@
         <v>59035673.930000007</v>
       </c>
       <c r="I95">
-        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.9</v>
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.05</v>
       </c>
       <c r="J95">
-        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.24</v>
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3</v>
       </c>
       <c r="K95">
-        <v>92.43</v>
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.54</v>
       </c>
       <c r="L95">
-        <v>89.97</v>
+        <f>_xlfn.XLOOKUP(B95,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.34</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BTCI11</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D96" s="2">
         <f>_xlfn.XLOOKUP(B96,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7627,30 +8518,32 @@
         <v>51016808.210000016</v>
       </c>
       <c r="I96">
-        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>9.0999999999999998E-2</v>
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J96">
-        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K96">
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="L96">
+        <f>_xlfn.XLOOKUP(B96,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>1.0129999999999999</v>
-      </c>
-      <c r="K96">
-        <v>9.93</v>
-      </c>
-      <c r="L96">
-        <v>9.17</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XPCI11</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D97" s="2">
         <f>_xlfn.XLOOKUP(B97,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7670,30 +8563,32 @@
         <v>44459028.100000001</v>
       </c>
       <c r="I97">
-        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.83</v>
       </c>
       <c r="J97">
-        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>9.48</v>
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.4699999999999998</v>
       </c>
       <c r="K97">
-        <v>86.91</v>
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.8699999999999992</v>
       </c>
       <c r="L97">
-        <v>83.3</v>
+        <f>_xlfn.XLOOKUP(B97,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>9.41</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RZAK11</v>
       </c>
       <c r="C98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D98" s="2">
         <f>_xlfn.XLOOKUP(B98,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7713,30 +8608,32 @@
         <v>44941892.710000008</v>
       </c>
       <c r="I98">
-        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.1299999999999999</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.7740530000000001</v>
       </c>
       <c r="J98">
-        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.59</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.9740530000000005</v>
       </c>
       <c r="K98">
-        <v>88.3</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.8940530000000004</v>
       </c>
       <c r="L98">
-        <v>97.01</v>
+        <f>_xlfn.XLOOKUP(B98,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>12.214053</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>HABT11</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D99" s="2">
         <f>_xlfn.XLOOKUP(B99,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7756,30 +8653,32 @@
         <v>33534378.470000003</v>
       </c>
       <c r="I99">
-        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.05</v>
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J99">
-        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>11.25</v>
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.1700000000000004</v>
       </c>
       <c r="K99">
-        <v>91</v>
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6.0200000000000005</v>
       </c>
       <c r="L99">
-        <v>89.4</v>
+        <f>_xlfn.XLOOKUP(B99,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>11.299999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BCRI11</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D100" s="2">
         <f>_xlfn.XLOOKUP(B100,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7799,30 +8698,32 @@
         <v>9946804.2700000014</v>
       </c>
       <c r="I100">
-        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.78</v>
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.84</v>
       </c>
       <c r="J100">
-        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.5</v>
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.37</v>
       </c>
       <c r="K100">
-        <v>74.67</v>
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.7799999999999994</v>
       </c>
       <c r="L100">
-        <v>96.69</v>
+        <f>_xlfn.XLOOKUP(B100,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CACR11</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D101" s="2">
         <f>_xlfn.XLOOKUP(B101,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7842,30 +8743,32 @@
         <v>48051519.079999991</v>
       </c>
       <c r="I101">
-        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.34</v>
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>1.3</v>
       </c>
       <c r="J101">
-        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>14.890000000000002</v>
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.96</v>
       </c>
       <c r="K101">
-        <v>103</v>
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>7.91</v>
       </c>
       <c r="L101">
-        <v>100.71</v>
+        <f>_xlfn.XLOOKUP(B101,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>14.840000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>AFHI11</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D102" s="2">
         <f>_xlfn.XLOOKUP(B102,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7885,30 +8788,32 @@
         <v>30747982.859999996</v>
       </c>
       <c r="I102">
-        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J102">
-        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.83</v>
+      </c>
+      <c r="K102">
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.6400000000000006</v>
+      </c>
+      <c r="L102">
+        <f>_xlfn.XLOOKUP(B102,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>10.399999999999999</v>
-      </c>
-      <c r="K102">
-        <v>100</v>
-      </c>
-      <c r="L102">
-        <v>94.91</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BARI11</v>
       </c>
       <c r="C103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D103" s="2">
         <f>_xlfn.XLOOKUP(B103,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7928,30 +8833,32 @@
         <v>14200865.32</v>
       </c>
       <c r="I103">
-        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.95</v>
       </c>
       <c r="J103">
-        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>8.8353999999999999</v>
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.69</v>
       </c>
       <c r="K103">
-        <v>83.5</v>
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>4.96</v>
       </c>
       <c r="L103">
-        <v>86.47</v>
+        <f>_xlfn.XLOOKUP(B103,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>8.8854000000000006</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SNCI11</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D104" s="2">
         <f>_xlfn.XLOOKUP(B104,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -7971,30 +8878,32 @@
         <v>12559230.260000002</v>
       </c>
       <c r="I104">
-        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J104">
-        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.55</v>
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3</v>
       </c>
       <c r="K104">
-        <v>100.49</v>
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>97.6</v>
+        <f>_xlfn.XLOOKUP(B104,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.649999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KCRE11</v>
       </c>
       <c r="C105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D105" s="2">
         <f>_xlfn.XLOOKUP(B105,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8014,30 +8923,32 @@
         <v>14588392.210000001</v>
       </c>
       <c r="I105">
-        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.09</v>
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.11</v>
       </c>
       <c r="J105">
-        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.026</v>
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K105">
-        <v>9.7959999999999994</v>
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.53</v>
       </c>
       <c r="L105">
-        <v>8.7000000000000011</v>
+        <f>_xlfn.XLOOKUP(B105,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.046</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PORD11</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D106" s="2">
         <f>_xlfn.XLOOKUP(B106,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8057,30 +8968,32 @@
         <v>13140553.460000001</v>
       </c>
       <c r="I106">
-        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>8.8999999999999996E-2</v>
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J106">
-        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.99799999999999978</v>
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.26</v>
       </c>
       <c r="K106">
-        <v>9.081999999999999</v>
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.52899999999999991</v>
       </c>
       <c r="L106">
-        <v>8.98</v>
+        <f>_xlfn.XLOOKUP(B106,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.98699999999999977</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MANA11</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D107" s="2">
         <f>_xlfn.XLOOKUP(B107,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8100,30 +9013,32 @@
         <v>34273870.090000011</v>
       </c>
       <c r="I107">
-        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.11</v>
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.1</v>
       </c>
       <c r="J107">
-        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.32</v>
+      </c>
+      <c r="K107">
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.62</v>
+      </c>
+      <c r="L107">
+        <f>_xlfn.XLOOKUP(B107,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>1.1500000000000001</v>
-      </c>
-      <c r="K107">
-        <v>9.49</v>
-      </c>
-      <c r="L107">
-        <v>9.98</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>VSLH11</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D108" s="2">
         <f>_xlfn.XLOOKUP(B108,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8143,30 +9058,32 @@
         <v>3934495.1900000009</v>
       </c>
       <c r="I108">
-        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.04</v>
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.03</v>
       </c>
       <c r="J108">
-        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>0.43999999999999995</v>
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.1</v>
       </c>
       <c r="K108">
-        <v>4.12</v>
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.22000000000000003</v>
       </c>
       <c r="L108">
-        <v>9.1300000000000008</v>
+        <f>_xlfn.XLOOKUP(B108,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>0.41999999999999993</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>OUJP11</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D109" s="2">
         <f>_xlfn.XLOOKUP(B109,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8186,30 +9103,32 @@
         <v>8781482.5399999991</v>
       </c>
       <c r="I109">
-        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.24</v>
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.91</v>
       </c>
       <c r="J109">
-        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.020000000000001</v>
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3.05</v>
       </c>
       <c r="K109">
-        <v>98.59</v>
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.6499999999999995</v>
       </c>
       <c r="L109">
-        <v>97</v>
+        <f>_xlfn.XLOOKUP(B109,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.02</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>WHGR11</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D110" s="2">
         <f>_xlfn.XLOOKUP(B110,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8229,30 +9148,32 @@
         <v>5187312.709999999</v>
       </c>
       <c r="I110">
-        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J110">
-        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K110">
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L110">
+        <f>_xlfn.XLOOKUP(B110,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>1.095</v>
-      </c>
-      <c r="K110">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L110">
-        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>RBRX11</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D111" s="2">
         <f>_xlfn.XLOOKUP(B111,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8272,30 +9193,32 @@
         <v>14458190.290000001</v>
       </c>
       <c r="I111">
-        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.08</v>
       </c>
       <c r="J111">
-        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.03</v>
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.24</v>
       </c>
       <c r="K111">
-        <v>9.3800000000000008</v>
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.49</v>
       </c>
       <c r="L111">
-        <v>9.93</v>
+        <f>_xlfn.XLOOKUP(B111,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.02</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>HSAF11</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D112" s="2">
         <f>_xlfn.XLOOKUP(B112,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8315,30 +9238,32 @@
         <v>14362210.949999997</v>
       </c>
       <c r="I112">
-        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>1.2</v>
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.95</v>
       </c>
       <c r="J112">
-        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.050000000000001</v>
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.95</v>
       </c>
       <c r="K112">
-        <v>86.59</v>
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.35</v>
       </c>
       <c r="L112">
-        <v>78.900000000000006</v>
+        <f>_xlfn.XLOOKUP(B112,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>KIVO11</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D113" s="2">
         <f>_xlfn.XLOOKUP(B113,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8358,30 +9283,32 @@
         <v>23351387.479999997</v>
       </c>
       <c r="I113">
-        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>0.95</v>
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.9</v>
       </c>
       <c r="J113">
-        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.670000000000002</v>
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>2.75</v>
       </c>
       <c r="K113">
-        <v>90.85</v>
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.42</v>
       </c>
       <c r="L113">
-        <v>85.49</v>
+        <f>_xlfn.XLOOKUP(B113,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.520000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SPXS11</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D114" s="2">
         <f>_xlfn.XLOOKUP(B114,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8401,30 +9328,32 @@
         <v>9149686.5599999987</v>
       </c>
       <c r="I114">
-        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.1</v>
       </c>
       <c r="J114">
-        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.073</v>
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K114">
-        <v>9.5</v>
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.60099999999999998</v>
       </c>
       <c r="L114">
-        <v>8.5</v>
+        <f>_xlfn.XLOOKUP(B114,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.0859999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ARRI11</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D115" s="2">
         <f>_xlfn.XLOOKUP(B115,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8444,30 +9373,32 @@
         <v>11044224.880000001</v>
       </c>
       <c r="I115">
-        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J115">
-        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>1.0699999999999998</v>
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27</v>
       </c>
       <c r="K115">
-        <v>9.08</v>
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.54999999999999993</v>
       </c>
       <c r="L115">
-        <v>9.19</v>
+        <f>_xlfn.XLOOKUP(B115,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>1.0599999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CYCR11</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D116" s="2">
         <f>_xlfn.XLOOKUP(B116,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8487,30 +9418,32 @@
         <v>14703901.189999999</v>
       </c>
       <c r="I116">
-        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
-        <v>9.5000000000000001E-2</v>
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
+        <v>0.1</v>
       </c>
       <c r="J116">
-        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="K116">
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L116">
+        <f>_xlfn.XLOOKUP(B116,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>1.1300000000000001</v>
-      </c>
-      <c r="K116">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="L116">
-        <v>8.89</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>CLIN11</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D117" s="2">
         <f>_xlfn.XLOOKUP(B117,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8530,27 +9463,32 @@
         <v>26838422.190000009</v>
       </c>
       <c r="I117">
-        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>1</v>
       </c>
       <c r="J117">
-        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
-        <v>10.85</v>
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>3</v>
       </c>
       <c r="K117">
-        <v>100</v>
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>5.8800000000000008</v>
+      </c>
+      <c r="L117">
+        <f>_xlfn.XLOOKUP(B117,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
+        <v>10.830000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GAME11</v>
       </c>
       <c r="C118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D118" s="2">
         <f>_xlfn.XLOOKUP(B118,[1]IFIX_Corte_NOVO!$B$9:$B$125,[1]IFIX_Corte_NOVO!$FY$9:$FY$125,"N/A",0)</f>
@@ -8570,15 +9508,20 @@
         <v>2625526.3400000003</v>
       </c>
       <c r="I118">
-        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EK$9:$EK$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EO$9:$EO$125,"N/A",0)</f>
         <v>0.09</v>
       </c>
       <c r="J118">
-        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EN$9:$EN$125,"N/A",0)</f>
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EP$9:$EP$125,"n/a",0)</f>
+        <v>0.27</v>
+      </c>
+      <c r="K118">
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$EQ$9:$EQ$125,"n/a",0)</f>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="L118">
+        <f>_xlfn.XLOOKUP(B118,[2]IFIX_Corte_NOVO!$B$9:$B$125,[2]IFIX_Corte_NOVO!$ER$9:$ER$125,"n/a",0)</f>
         <v>0.98999999999999977</v>
-      </c>
-      <c r="K118">
-        <v>9.09</v>
       </c>
     </row>
   </sheetData>
